--- a/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
+++ b/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\미래내일일경험 공유\python_lab\07. 한글 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDB8EC1-3D7A-4843-901B-46923CFBC5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDDF3F-4430-428E-ADF3-F9F1C7A8EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참여자명단" sheetId="1" r:id="rId1"/>
     <sheet name="쇼우테크" sheetId="2" r:id="rId2"/>
     <sheet name="사전직무" sheetId="3" r:id="rId3"/>
-    <sheet name="125.사전직무교육 실시보고" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="281">
   <si>
     <t>특이사항 기재</t>
   </si>
   <si>
     <t>순번</t>
-  </si>
-  <si>
-    <t>프로그램명</t>
   </si>
   <si>
     <t>성명</t>
@@ -2073,21 +2069,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>직무분야</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>광고 마케팅</t>
   </si>
   <si>
@@ -3034,43 +3015,6 @@
   <si>
     <t>[하이브미디어] 소셜미디어 마케팅 인턴십 2차</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[하이브미디어] 소셜미디어 마케팅 인턴십 3차</t>
-  </si>
-  <si>
-    <t>[하이브미디어] 소셜미디어 마케팅 인턴십 4차</t>
-  </si>
-  <si>
-    <t>[하이브미디어] 소셜미디어 마케팅 인턴십 5차</t>
-  </si>
-  <si>
-    <t>[하이브미디어] 소셜미디어 마케팅 인턴십 6차</t>
-  </si>
-  <si>
-    <t>프로그램명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직무분야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여인원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직무교육명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육 주요내용</t>
-  </si>
-  <si>
-    <t>교육 기간</t>
-  </si>
-  <si>
-    <t>장소(소재지)</t>
   </si>
   <si>
     <t>프로그램명</t>
@@ -3110,7 +3054,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3470,13 +3414,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -3551,7 +3488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -3931,12 +3868,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4102,9 +4052,6 @@
     <xf numFmtId="177" fontId="33" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4134,18 +4081,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4164,24 +4099,6 @@
     <xf numFmtId="0" fontId="41" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4194,6 +4111,33 @@
     <xf numFmtId="0" fontId="32" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4236,6 +4180,18 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4251,6 +4207,9 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4263,24 +4222,8 @@
     <xf numFmtId="0" fontId="44" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4559,7 +4502,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4596,70 +4539,70 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -4668,50 +4611,50 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="L2" s="12">
         <v>3</v>
       </c>
       <c r="M2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="S2" s="17" t="str">
         <f t="shared" ref="S2:S16" si="0">Q2&amp; "/" &amp;R2</f>
@@ -4749,50 +4692,50 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="12">
         <v>3</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="S3" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4830,52 +4773,52 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="L4" s="12">
         <v>2</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="S4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4908,52 +4851,52 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>40</v>
-      </c>
       <c r="K5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="12">
         <v>2</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="S5" s="17" t="str">
         <f t="shared" si="0"/>
@@ -4986,52 +4929,52 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="J6" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="12">
         <v>4</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="P6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="S6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5064,52 +5007,52 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="K7" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" s="12">
         <v>1</v>
       </c>
       <c r="M7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="13" t="s">
+      <c r="P7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="S7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5142,52 +5085,52 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="L8" s="12">
         <v>2</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="S8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5220,52 +5163,52 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>62</v>
-      </c>
       <c r="K9" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="12">
         <v>4</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5298,52 +5241,52 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="K10" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="12">
         <v>2</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="S10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5376,52 +5319,52 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>70</v>
-      </c>
       <c r="K11" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="12">
         <v>3</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="R11" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="S11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5454,52 +5397,52 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>101</v>
-      </c>
       <c r="J12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L12" s="12">
         <v>2</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="S12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5532,52 +5475,52 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="J13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>77</v>
-      </c>
       <c r="K13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" s="12">
         <v>1</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5610,52 +5553,52 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>81</v>
-      </c>
       <c r="K14" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L14" s="12">
         <v>2</v>
       </c>
       <c r="M14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="O14" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5688,52 +5631,52 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="L15" s="12">
         <v>2</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5765,53 +5708,53 @@
         <v>15</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="112" t="s">
-        <v>239</v>
+      <c r="C16" s="78" t="s">
+        <v>237</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="19" t="s">
+      <c r="J16" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>87</v>
-      </c>
       <c r="K16" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16" s="24">
         <v>1</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S16" s="17" t="str">
         <f t="shared" si="0"/>
@@ -5843,53 +5786,53 @@
         <v>16</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>241</v>
-      </c>
       <c r="H17" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="J17" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>248</v>
-      </c>
       <c r="K17" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L17" s="24">
         <v>1</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="Q17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="S17" s="17" t="str">
         <f t="shared" ref="S17:S21" si="6">Q17&amp; "/" &amp;R17</f>
@@ -5926,53 +5869,53 @@
         <v>17</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="112" t="s">
-        <v>239</v>
+      <c r="C18" s="78" t="s">
+        <v>237</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H18" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="J18" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>255</v>
-      </c>
       <c r="K18" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="24">
         <v>1</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P18" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="R18" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="S18" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6004,53 +5947,53 @@
         <v>18</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="112" t="s">
-        <v>239</v>
+      <c r="C19" s="78" t="s">
+        <v>237</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H19" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>261</v>
-      </c>
       <c r="K19" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L19" s="24">
         <v>3</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P19" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="R19" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="S19" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6082,53 +6025,53 @@
         <v>19</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="112" t="s">
-        <v>239</v>
+      <c r="C20" s="78" t="s">
+        <v>237</v>
       </c>
       <c r="D20" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>100</v>
-      </c>
       <c r="F20" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H20" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>267</v>
-      </c>
       <c r="K20" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" s="24">
         <v>3</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S20" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6160,53 +6103,53 @@
         <v>20</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="112" t="s">
-        <v>239</v>
+      <c r="C21" s="78" t="s">
+        <v>237</v>
       </c>
       <c r="D21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>279</v>
+      <c r="F21" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H21" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>272</v>
-      </c>
       <c r="K21" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L21" s="24">
         <v>3</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="S21" s="17" t="str">
         <f t="shared" si="6"/>
@@ -6244,7 +6187,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6257,85 +6200,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="A1" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1">
       <c r="A2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="C2" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickTop="1">
+      <c r="A3" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickTop="1">
-      <c r="A3" s="94" t="s">
+      <c r="B3" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="33" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>119</v>
       </c>
       <c r="E3" s="28">
         <v>45455</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="95"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>122</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" ht="17.25">
-      <c r="A7" s="95"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="30">
         <v>222222222</v>
@@ -6344,370 +6287,370 @@
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="95"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="95"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="D9" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="E9" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="93"/>
+      <c r="B10" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="95"/>
-      <c r="B10" s="36" t="s">
+      <c r="C10" s="31" t="s">
         <v>130</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>131</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>132</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>133</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="95"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>136</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="17.25">
-      <c r="A14" s="95"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>133</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="93"/>
+      <c r="B15" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="93"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="93"/>
+      <c r="B17" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="95"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="95"/>
-      <c r="B17" s="36" t="s">
+      <c r="C17" s="30" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>139</v>
       </c>
       <c r="D17" s="36"/>
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="95"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>141</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="95"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>143</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="95"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="36"/>
       <c r="C20" s="30"/>
       <c r="D20" s="36"/>
       <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A21" s="96"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="38"/>
       <c r="C21" s="32"/>
       <c r="D21" s="38"/>
       <c r="E21" s="32"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="C24" s="29" t="s">
         <v>148</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>149</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="90"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="90"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>152</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>153</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="90"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>154</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>155</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="90"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>156</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>157</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="90"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="90"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>160</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>161</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A31" s="91"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="46"/>
       <c r="E31" s="32"/>
     </row>
     <row r="34" spans="1:5" ht="17.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="C34" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="D34" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="47" t="s">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="88"/>
+      <c r="B35" s="34" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="90"/>
-      <c r="B35" s="34" t="s">
+      <c r="C35" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="D35" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="47" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="17.25">
+      <c r="A36" s="88"/>
+      <c r="B36" s="34" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="34" t="s">
+      <c r="C36" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="48" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="88"/>
+      <c r="B37" s="34" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="90"/>
-      <c r="B37" s="34" t="s">
+      <c r="C37" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="47" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="88"/>
+      <c r="B38" s="34" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="90"/>
-      <c r="B38" s="34" t="s">
+      <c r="C38" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="D38" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" s="50" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="88"/>
+      <c r="B39" s="34" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="90"/>
-      <c r="B39" s="34" t="s">
-        <v>177</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="50"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="88"/>
+      <c r="B40" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="90"/>
-      <c r="B40" s="34" t="s">
+      <c r="C40" s="65">
+        <v>999999</v>
+      </c>
+      <c r="D40" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="66">
+      <c r="E40" s="61">
         <v>999999</v>
       </c>
-      <c r="D40" s="67" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="88"/>
+      <c r="B41" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="62">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="90"/>
-      <c r="B41" s="34" t="s">
+      <c r="C41" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A42" s="89"/>
+      <c r="B42" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="34" t="s">
+      <c r="C42" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A42" s="91"/>
-      <c r="B42" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>181</v>
-      </c>
       <c r="E42" s="52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -6740,8 +6683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3755A036-A738-4735-B900-5D4EBF9F9F0A}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6749,400 +6692,405 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A1" s="110" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="A1" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="110" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="C2" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="115">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="E3" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="115" t="s">
-        <v>292</v>
+      <c r="A4" s="111"/>
+      <c r="B4" s="79" t="s">
+        <v>279</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="73"/>
+        <v>280</v>
+      </c>
+      <c r="D4" s="68"/>
       <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="108"/>
-      <c r="B5" s="115" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="58">
+      <c r="A5" s="111"/>
+      <c r="B5" s="79" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="57">
         <f>COUNT(참여자명단!A2:A21)</f>
         <v>20</v>
       </c>
-      <c r="D5" s="73"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="108"/>
-      <c r="B6" s="115" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="111"/>
+      <c r="B7" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="108"/>
-      <c r="B7" s="86" t="s">
+      <c r="D7" s="68"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="111"/>
+      <c r="B8" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C8" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="108"/>
-      <c r="B8" s="86" t="s">
+      <c r="D8" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="E8" s="61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="111"/>
+      <c r="B9" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="C9" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="62">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="73"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="108"/>
-      <c r="B10" s="116" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="61" t="str">
+      <c r="A10" s="111"/>
+      <c r="B10" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="60" t="str">
         <f>C8&amp; "~" &amp; C9</f>
         <v>2024.12.23~2024.12.30</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="62"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="61"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="117" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="104" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A12" s="112"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A12" s="109"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" s="102"/>
+      <c r="B16" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="114" t="s">
-        <v>287</v>
-      </c>
-      <c r="C15" s="75" t="s">
+      <c r="C16" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="79" t="s">
+      <c r="D16" s="71"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A17" s="102"/>
+      <c r="B17" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C17" s="70">
+        <v>2</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A18" s="102"/>
+      <c r="B18" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="41"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="80" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="102"/>
+      <c r="B19" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="75">
-        <v>2</v>
-      </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="79" t="s">
+      <c r="C19" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="102"/>
+      <c r="B20" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="79" t="s">
+      <c r="C20" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="102"/>
+      <c r="B21" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C21" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" ht="25.5">
-      <c r="A20" s="70"/>
-      <c r="B20" s="79" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="102"/>
+      <c r="B22" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="C20" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="79" t="s">
+      <c r="C22" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="41"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="81" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="102"/>
+      <c r="B23" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C23" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="70"/>
-      <c r="B23" s="79" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="102"/>
+      <c r="B24" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C24" s="70" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="76"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="79" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="102"/>
+      <c r="B25" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="75" t="str">
+      <c r="C25" s="70" t="str">
         <f>LEFT(C23, FIND("~", C23) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D25" s="76"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="79" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="75" t="str">
+      <c r="A26" s="102"/>
+      <c r="B26" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="70" t="str">
         <f>LEFT(C23, FIND("~", C23) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D26" s="76"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="82" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A28" s="102"/>
+      <c r="B28" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C28" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="82" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A29" s="102"/>
+      <c r="B29" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C29" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A30" s="102"/>
+      <c r="B30" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" s="70"/>
-      <c r="B29" s="82" t="s">
+      <c r="C30" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A31" s="102"/>
+      <c r="B31" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C31" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A32" s="102"/>
+      <c r="B32" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A33" s="102"/>
+      <c r="B33" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="70" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" s="70"/>
-      <c r="B30" s="82" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="75" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A34" s="102"/>
+      <c r="B34" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A31" s="70"/>
-      <c r="B31" s="82" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" s="70"/>
-      <c r="B32" s="82" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A33" s="70"/>
-      <c r="B33" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="41"/>
     </row>
-    <row r="35" spans="1:5" ht="25.5">
-      <c r="A35" s="70"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="76"/>
+    <row r="35" spans="1:5">
+      <c r="A35" s="102"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="41"/>
     </row>
-    <row r="36" spans="1:5" ht="26.25" thickBot="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="84"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="77"/>
+    <row r="36" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A36" s="103"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A15:A36"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:E12"/>
     <mergeCell ref="A2:A12"/>
@@ -7168,68 +7116,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E8497C-C1F4-451C-95B9-56650402E27B}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="113" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="113" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="113" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="113"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="113" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
+++ b/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\미래내일일경험 공유\python_lab\07. 한글 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDDF3F-4430-428E-ADF3-F9F1C7A8EB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9915D7A-009B-4358-9BC1-AF92F15440C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참여자명단" sheetId="1" r:id="rId1"/>
     <sheet name="쇼우테크" sheetId="2" r:id="rId2"/>
-    <sheet name="사전직무" sheetId="3" r:id="rId3"/>
+    <sheet name="사전직무,운영기관,일경험 정보" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="307">
   <si>
     <t>특이사항 기재</t>
   </si>
@@ -1930,6 +1930,128 @@
   <si>
     <t>멘토 계좌번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>운영기관명</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국무선인터넷솔루션협회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민재</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교육기관명</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국융합인재교육협회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연제구 24</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 마케팅</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교육시작날짜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총시수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교육종료날짜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT  분야 일경험 프로그램 수행을 위해 필수적인 기초 소양 배양</t>
   </si>
   <si>
     <r>
@@ -1941,7 +2063,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사전직무</t>
+      <t>일경험</t>
     </r>
     <r>
       <rPr>
@@ -1950,10 +2072,9 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1964,19 +2085,853 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>운영</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="20"/>
+      <t>정보</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노마드랩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>빅데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>활용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일경험</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유형</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인턴형</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인턴형 기간(개월수)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일경험 장소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>직무</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>근무부서</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주요업무</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일경험</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기간</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일경험</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1~4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.11.18 ~ 2024.12.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일경험</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5~8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.16 ~ 2024.01.07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1~4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>참여일</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5~8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 앱 개발 기초와 필수 도구 소개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 화면 설계 및 사용자 경험(UX) 기초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 저장 및 관리 – SQLite와 로컬 데이터</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 통신 – API 활용 및 데이터 연동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1212-1212-6565-784</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토2은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토1은행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발팀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 개발 업무에 대한 전반적인 기초 능력 배양 및 현업에 대한 경험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 레이아웃 구성 – XML 및 기본 위젯 활용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 인터랙션 추가 – 이벤트 및 터치 기능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 성능 최적화와 디버깅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 배포 및 유지 관리 전략</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사)한국기술사업화진흥협회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[쇼우테크] SNS콘텐츠 마케팅 인턴십</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태하</t>
+  </si>
+  <si>
+    <t>김세희</t>
+  </si>
+  <si>
+    <t>노인서</t>
+  </si>
+  <si>
+    <t>박은지</t>
+  </si>
+  <si>
+    <t>윤혜린</t>
+  </si>
+  <si>
+    <t>050323-3109111</t>
+  </si>
+  <si>
+    <t>010-2726-3560</t>
+  </si>
+  <si>
+    <t>thaa23@naver.com</t>
+  </si>
+  <si>
+    <t>경성대학교</t>
+  </si>
+  <si>
+    <t>미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 신주 1길 46 대방노블랜드 1차 105동 904호</t>
+  </si>
+  <si>
+    <t>939302-01-502195</t>
+  </si>
+  <si>
+    <t>050507-4912710</t>
+  </si>
+  <si>
+    <t>010-6277-0507</t>
+  </si>
+  <si>
+    <t>hee050507@naver.com</t>
+  </si>
+  <si>
+    <t>경남 거제시 중곡로2길 25 502동 1001호</t>
+  </si>
+  <si>
+    <t>NH농협</t>
+  </si>
+  <si>
+    <t>356-1382-5638-33</t>
+  </si>
+  <si>
+    <t>020523-4124219</t>
+  </si>
+  <si>
+    <t>010-9405-3976</t>
+  </si>
+  <si>
+    <t>nis3978@naver.com</t>
+  </si>
+  <si>
+    <t>부산광역시 동래구 석사북로 105 202호</t>
+  </si>
+  <si>
+    <t>카카오뱅크</t>
+  </si>
+  <si>
+    <t>3333-23-3090456</t>
+  </si>
+  <si>
+    <t>040902-4106712</t>
+  </si>
+  <si>
+    <t>010-8440-6825</t>
+  </si>
+  <si>
+    <t>parkeunji8440@naver.com</t>
+  </si>
+  <si>
+    <t>부산시 연제구 과정로 271 4층</t>
+  </si>
+  <si>
+    <t>3333-22-9308228</t>
+  </si>
+  <si>
+    <t>041012-4901317</t>
+  </si>
+  <si>
+    <t>010-3143-2312</t>
+  </si>
+  <si>
+    <t>hylin1012@naver.com</t>
+  </si>
+  <si>
+    <t>경상남도 양산시 물금읍 신주로 16 반도유보라 1차 105-304</t>
+  </si>
+  <si>
+    <t>3333-22-2528791</t>
+  </si>
+  <si>
+    <t>[하이브미디어] 소셜미디어 마케팅 인턴십 2차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육장소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육기간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육목적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래내일일경험 사전직무교육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024년 12월 23일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황승준</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육기관 소재지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>070-7701-7735</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 사상구 주례로 27번길 34, 3층 305호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -1986,1062 +2941,111 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>계획서</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>운영기관명</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국무선인터넷솔루션협회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민재</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교육기관명</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국융합인재교육협회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부산광역시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연제구 24</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고 마케팅</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교육시작날짜</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.12.23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>총시수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교육종료날짜</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.12.30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT  분야 일경험 프로그램 수행을 위해 필수적인 기초 소양 배양</t>
-  </si>
-  <si>
+      <t>사전직무기관</t>
+    </r>
     <r>
       <rPr>
         <u/>
         <sz val="20"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일경험</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="20"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>노마드랩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>빅데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일경험</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유형</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인턴형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인턴형 기간(개월수)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일경험 장소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>직무</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>근무부서</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주요업무</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일경험</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기간</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.18 ~ 2025.01.10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일경험</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1~4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.11.18 ~ 2024.12.13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일경험</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5~8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024.12.16 ~ 2024.01.07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여일</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1~4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>참여일</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(5~8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모바일 앱 개발 기초와 필수 도구 소개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱 화면 설계 및 사용자 경험(UX) 기초</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 저장 및 관리 – SQLite와 로컬 데이터</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트워크 통신 – API 활용 및 데이터 연동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주차</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사전직무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일경험</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1212-1212-6565-784</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토2은행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘토1은행</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발팀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트웨어 개발 업무에 대한 전반적인 기초 능력 배양 및 현업에 대한 경험</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱 레이아웃 구성 – XML 및 기본 위젯 활용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 인터랙션 추가 – 이벤트 및 터치 기능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱 성능 최적화와 디버깅</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>앱 배포 및 유지 관리 전략</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>운영기관명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(사)한국기술사업화진흥협회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[쇼우테크] SNS콘텐츠 마케팅 인턴십</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태하</t>
-  </si>
-  <si>
-    <t>김세희</t>
-  </si>
-  <si>
-    <t>노인서</t>
-  </si>
-  <si>
-    <t>박은지</t>
-  </si>
-  <si>
-    <t>윤혜린</t>
-  </si>
-  <si>
-    <t>050323-3109111</t>
-  </si>
-  <si>
-    <t>010-2726-3560</t>
-  </si>
-  <si>
-    <t>thaa23@naver.com</t>
-  </si>
-  <si>
-    <t>경성대학교</t>
-  </si>
-  <si>
-    <t>미디어콘텐츠학과</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 신주 1길 46 대방노블랜드 1차 105동 904호</t>
-  </si>
-  <si>
-    <t>939302-01-502195</t>
-  </si>
-  <si>
-    <t>050507-4912710</t>
-  </si>
-  <si>
-    <t>010-6277-0507</t>
-  </si>
-  <si>
-    <t>hee050507@naver.com</t>
-  </si>
-  <si>
-    <t>경남 거제시 중곡로2길 25 502동 1001호</t>
-  </si>
-  <si>
-    <t>NH농협</t>
-  </si>
-  <si>
-    <t>356-1382-5638-33</t>
-  </si>
-  <si>
-    <t>020523-4124219</t>
-  </si>
-  <si>
-    <t>010-9405-3976</t>
-  </si>
-  <si>
-    <t>nis3978@naver.com</t>
-  </si>
-  <si>
-    <t>부산광역시 동래구 석사북로 105 202호</t>
-  </si>
-  <si>
-    <t>카카오뱅크</t>
-  </si>
-  <si>
-    <t>3333-23-3090456</t>
-  </si>
-  <si>
-    <t>040902-4106712</t>
-  </si>
-  <si>
-    <t>010-8440-6825</t>
-  </si>
-  <si>
-    <t>parkeunji8440@naver.com</t>
-  </si>
-  <si>
-    <t>부산시 연제구 과정로 271 4층</t>
-  </si>
-  <si>
-    <t>3333-22-9308228</t>
-  </si>
-  <si>
-    <t>041012-4901317</t>
-  </si>
-  <si>
-    <t>010-3143-2312</t>
-  </si>
-  <si>
-    <t>hylin1012@naver.com</t>
-  </si>
-  <si>
-    <t>경상남도 양산시 물금읍 신주로 16 반도유보라 1차 105-304</t>
-  </si>
-  <si>
-    <t>3333-22-2528791</t>
-  </si>
-  <si>
-    <t>[하이브미디어] 소셜미디어 마케팅 인턴십 2차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그램명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육장소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육기간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육목적</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육인원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>미래내일일경험 사전직무교육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전직무,운영기관,일경험 정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육기관 대표자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관 대표자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육기관 담당자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육기관 담당자 연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관 담당자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관 담당자 연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2202-2222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일경험 기간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일경험 시작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일경험 종료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중도탈락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료인원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>직무현황</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관 소재지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3054,7 +3058,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3380,33 +3384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
@@ -3430,6 +3407,28 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="G마켓 산스 Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3886,7 +3885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4073,14 +4072,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4114,29 +4113,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4189,41 +4227,23 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4499,10 +4519,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4512,26 +4532,27 @@
     <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="49" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -4539,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>88</v>
@@ -4547,71 +4568,77 @@
       <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>98</v>
@@ -4619,80 +4646,86 @@
       <c r="E2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="9">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="12">
+      <c r="N2" s="12">
         <v>3</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="17" t="str">
-        <f t="shared" ref="S2:S16" si="0">Q2&amp; "/" &amp;R2</f>
+      <c r="U2" s="17" t="str">
+        <f t="shared" ref="U2:U16" si="0">S2&amp; "/" &amp;T2</f>
         <v>신한은행/605-2241-148731</v>
       </c>
-      <c r="T2" s="17" t="str">
-        <f>IF(OR(MID(H2, 8, 1) = "3", MOD(MID(H2, 8, 1), 2) = 1), "남", "여")</f>
+      <c r="V2" s="17" t="str">
+        <f>IF(OR(MID(J2, 8, 1) = "3", MOD(MID(J2, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="U2" s="17" t="str">
-        <f>LEFT(H2, 6)</f>
+      <c r="W2" s="17" t="str">
+        <f>LEFT(J2, 6)</f>
         <v>900699</v>
       </c>
-      <c r="V2" s="17" t="str">
-        <f>IF(VALUE(MID(H2, 8, 1)) &lt;= 2, "19" &amp; LEFT(H2, 2), "20" &amp; LEFT(H2, 2))</f>
+      <c r="X2" s="17" t="str">
+        <f>IF(VALUE(MID(J2, 8, 1)) &lt;= 2, "19" &amp; LEFT(J2, 2), "20" &amp; LEFT(J2, 2))</f>
         <v>1990</v>
       </c>
-      <c r="W2" s="17">
-        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(H2, 8, 1)) &lt;= 2, "19" &amp; LEFT(H2, 2), "20" &amp; LEFT(H2, 2)))</f>
+      <c r="Y2" s="17">
+        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J2, 8, 1)) &lt;= 2, "19" &amp; LEFT(J2, 2), "20" &amp; LEFT(J2, 2)))</f>
         <v>34</v>
       </c>
-      <c r="X2" s="17" t="str">
-        <f>IF(OR(ISNUMBER(SEARCH("서울", P2)), ISNUMBER(SEARCH("인천", P2)), ISNUMBER(SEARCH("경기", P2))), "수도권",
-   IF(OR(ISNUMBER(SEARCH("부산", P2)), ISNUMBER(SEARCH("대구", P2)), ISNUMBER(SEARCH("울산", P2)), ISNUMBER(SEARCH("경북", P2)), ISNUMBER(SEARCH("경남", P2)), ISNUMBER(SEARCH("양산", P2)), ISNUMBER(SEARCH("김해", P2)), ISNUMBER(SEARCH("창원", P2)), ISNUMBER(SEARCH("경상북도", P2)), ISNUMBER(SEARCH("경상남도", P2))), "경상권",
-   IF(OR(ISNUMBER(SEARCH("광주", P2)), ISNUMBER(SEARCH("전북", P2)), ISNUMBER(SEARCH("전남", P2)), ISNUMBER(SEARCH("전라북도", P2)), ISNUMBER(SEARCH("전라남도", P2))), "호남권",
-   IF(OR(ISNUMBER(SEARCH("대전", P2)), ISNUMBER(SEARCH("충북", P2)), ISNUMBER(SEARCH("세종", P2)), ISNUMBER(SEARCH("충남", P2)), ISNUMBER(SEARCH("충청북도", P2)), ISNUMBER(SEARCH("충청남도", P2))), "충청권",
-   IF(ISNUMBER(SEARCH("강원", P2)), "강원권",
-   IF(ISNUMBER(SEARCH("제주", P2)), "제주"))))))</f>
+      <c r="Z2" s="17" t="str">
+        <f>IF(OR(ISNUMBER(SEARCH("서울", R2)), ISNUMBER(SEARCH("인천", R2)), ISNUMBER(SEARCH("경기", R2))), "수도권",
+   IF(OR(ISNUMBER(SEARCH("부산", R2)), ISNUMBER(SEARCH("대구", R2)), ISNUMBER(SEARCH("울산", R2)), ISNUMBER(SEARCH("경북", R2)), ISNUMBER(SEARCH("경남", R2)), ISNUMBER(SEARCH("양산", R2)), ISNUMBER(SEARCH("김해", R2)), ISNUMBER(SEARCH("창원", R2)), ISNUMBER(SEARCH("경상북도", R2)), ISNUMBER(SEARCH("경상남도", R2))), "경상권",
+   IF(OR(ISNUMBER(SEARCH("광주", R2)), ISNUMBER(SEARCH("전북", R2)), ISNUMBER(SEARCH("전남", R2)), ISNUMBER(SEARCH("전라북도", R2)), ISNUMBER(SEARCH("전라남도", R2))), "호남권",
+   IF(OR(ISNUMBER(SEARCH("대전", R2)), ISNUMBER(SEARCH("충북", R2)), ISNUMBER(SEARCH("세종", R2)), ISNUMBER(SEARCH("충남", R2)), ISNUMBER(SEARCH("충청북도", R2)), ISNUMBER(SEARCH("충청남도", R2))), "충청권",
+   IF(ISNUMBER(SEARCH("강원", R2)), "강원권",
+   IF(ISNUMBER(SEARCH("제주", R2)), "제주"))))))</f>
         <v>경상권</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>98</v>
@@ -4700,80 +4733,86 @@
       <c r="E3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="9">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="12">
+      <c r="N3" s="12">
         <v>3</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="17" t="str">
+      <c r="U3" s="17" t="str">
         <f t="shared" si="0"/>
         <v>국민은행/296-6536-108357</v>
       </c>
-      <c r="T3" s="17" t="str">
-        <f t="shared" ref="T3:T16" si="1">IF(OR(MID(H3, 8, 1) = "3", MOD(MID(H3, 8, 1), 2) = 1), "남", "여")</f>
+      <c r="V3" s="17" t="str">
+        <f t="shared" ref="V3:V16" si="1">IF(OR(MID(J3, 8, 1) = "3", MOD(MID(J3, 8, 1), 2) = 1), "남", "여")</f>
         <v>여</v>
       </c>
-      <c r="U3" s="17" t="str">
-        <f t="shared" ref="U3:U16" si="2">LEFT(H3, 6)</f>
+      <c r="W3" s="17" t="str">
+        <f t="shared" ref="W3:W16" si="2">LEFT(J3, 6)</f>
         <v>950499</v>
       </c>
-      <c r="V3" s="17" t="str">
-        <f t="shared" ref="V3:V16" si="3">IF(VALUE(MID(H3, 8, 1)) &lt;= 2, "19" &amp; LEFT(H3, 2), "20" &amp; LEFT(H3, 2))</f>
+      <c r="X3" s="17" t="str">
+        <f t="shared" ref="X3:X16" si="3">IF(VALUE(MID(J3, 8, 1)) &lt;= 2, "19" &amp; LEFT(J3, 2), "20" &amp; LEFT(J3, 2))</f>
         <v>1995</v>
       </c>
-      <c r="W3" s="17">
-        <f t="shared" ref="W3:W16" ca="1" si="4">YEAR(TODAY()) - VALUE(IF(VALUE(MID(H3, 8, 1)) &lt;= 2, "19" &amp; LEFT(H3, 2), "20" &amp; LEFT(H3, 2)))</f>
+      <c r="Y3" s="17">
+        <f t="shared" ref="Y3:Y16" ca="1" si="4">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J3, 8, 1)) &lt;= 2, "19" &amp; LEFT(J3, 2), "20" &amp; LEFT(J3, 2)))</f>
         <v>29</v>
       </c>
-      <c r="X3" s="17" t="str">
-        <f t="shared" ref="X3:X16" si="5">IF(OR(ISNUMBER(SEARCH("서울", P3)), ISNUMBER(SEARCH("인천", P3)), ISNUMBER(SEARCH("경기", P3))), "수도권",
-   IF(OR(ISNUMBER(SEARCH("부산", P3)), ISNUMBER(SEARCH("대구", P3)), ISNUMBER(SEARCH("울산", P3)), ISNUMBER(SEARCH("경북", P3)), ISNUMBER(SEARCH("경남", P3)), ISNUMBER(SEARCH("양산", P3)), ISNUMBER(SEARCH("김해", P3)), ISNUMBER(SEARCH("창원", P3)), ISNUMBER(SEARCH("경상북도", P3)), ISNUMBER(SEARCH("경상남도", P3))), "경상권",
-   IF(OR(ISNUMBER(SEARCH("광주", P3)), ISNUMBER(SEARCH("전북", P3)), ISNUMBER(SEARCH("전남", P3)), ISNUMBER(SEARCH("전라북도", P3)), ISNUMBER(SEARCH("전라남도", P3))), "호남권",
-   IF(OR(ISNUMBER(SEARCH("대전", P3)), ISNUMBER(SEARCH("충북", P3)), ISNUMBER(SEARCH("세종", P3)), ISNUMBER(SEARCH("충남", P3)), ISNUMBER(SEARCH("충청북도", P3)), ISNUMBER(SEARCH("충청남도", P3))), "충청권",
-   IF(ISNUMBER(SEARCH("강원", P3)), "강원권",
-   IF(ISNUMBER(SEARCH("제주", P3)), "제주"))))))</f>
+      <c r="Z3" s="17" t="str">
+        <f t="shared" ref="Z3:Z16" si="5">IF(OR(ISNUMBER(SEARCH("서울", R3)), ISNUMBER(SEARCH("인천", R3)), ISNUMBER(SEARCH("경기", R3))), "수도권",
+   IF(OR(ISNUMBER(SEARCH("부산", R3)), ISNUMBER(SEARCH("대구", R3)), ISNUMBER(SEARCH("울산", R3)), ISNUMBER(SEARCH("경북", R3)), ISNUMBER(SEARCH("경남", R3)), ISNUMBER(SEARCH("양산", R3)), ISNUMBER(SEARCH("김해", R3)), ISNUMBER(SEARCH("창원", R3)), ISNUMBER(SEARCH("경상북도", R3)), ISNUMBER(SEARCH("경상남도", R3))), "경상권",
+   IF(OR(ISNUMBER(SEARCH("광주", R3)), ISNUMBER(SEARCH("전북", R3)), ISNUMBER(SEARCH("전남", R3)), ISNUMBER(SEARCH("전라북도", R3)), ISNUMBER(SEARCH("전라남도", R3))), "호남권",
+   IF(OR(ISNUMBER(SEARCH("대전", R3)), ISNUMBER(SEARCH("충북", R3)), ISNUMBER(SEARCH("세종", R3)), ISNUMBER(SEARCH("충남", R3)), ISNUMBER(SEARCH("충청북도", R3)), ISNUMBER(SEARCH("충청남도", R3))), "충청권",
+   IF(ISNUMBER(SEARCH("강원", R3)), "강원권",
+   IF(ISNUMBER(SEARCH("제주", R3)), "제주"))))))</f>
         <v>경상권</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>98</v>
@@ -4781,77 +4820,83 @@
       <c r="E4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="9">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="J4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="12">
+      <c r="N4" s="12">
         <v>2</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="T4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="17" t="str">
+      <c r="U4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/309-4311-417843</v>
       </c>
-      <c r="T4" s="17" t="str">
-        <f>IF(OR(MID(H4, 8, 1) = "3", MOD(MID(H4, 8, 1), 2) = 1), "남", "여")</f>
+      <c r="V4" s="17" t="str">
+        <f>IF(OR(MID(J4, 8, 1) = "3", MOD(MID(J4, 8, 1), 2) = 1), "남", "여")</f>
         <v>여</v>
       </c>
-      <c r="U4" s="17" t="str">
+      <c r="W4" s="17" t="str">
         <f t="shared" si="2"/>
         <v>960399</v>
       </c>
-      <c r="V4" s="17" t="str">
+      <c r="X4" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1996</v>
       </c>
-      <c r="W4" s="17">
+      <c r="Y4" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>28</v>
       </c>
-      <c r="X4" s="17" t="str">
+      <c r="Z4" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>98</v>
@@ -4859,77 +4904,83 @@
       <c r="E5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="9">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="12">
+      <c r="N5" s="12">
         <v>2</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="Q5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="R5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="17" t="str">
+      <c r="U5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/916-4781-629387</v>
       </c>
-      <c r="T5" s="17" t="str">
+      <c r="V5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U5" s="17" t="str">
+      <c r="W5" s="17" t="str">
         <f t="shared" si="2"/>
         <v>930699</v>
       </c>
-      <c r="V5" s="17" t="str">
+      <c r="X5" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="W5" s="17">
+      <c r="Y5" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
-      <c r="X5" s="17" t="str">
+      <c r="Z5" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>98</v>
@@ -4937,77 +4988,83 @@
       <c r="E6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="9">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="J6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="M6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="12">
+      <c r="N6" s="12">
         <v>4</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="S6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="T6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="17" t="str">
+      <c r="U6" s="17" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/165-6075-449479</v>
       </c>
-      <c r="T6" s="17" t="str">
+      <c r="V6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U6" s="17" t="str">
+      <c r="W6" s="17" t="str">
         <f t="shared" si="2"/>
         <v>020699</v>
       </c>
-      <c r="V6" s="17" t="str">
+      <c r="X6" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2002</v>
       </c>
-      <c r="W6" s="17">
+      <c r="Y6" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="X6" s="17" t="str">
+      <c r="Z6" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>98</v>
@@ -5015,77 +5072,83 @@
       <c r="E7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="9">
+        <v>40</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="12">
+      <c r="N7" s="12">
         <v>1</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="R7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="S7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="T7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="17" t="str">
+      <c r="U7" s="17" t="str">
         <f t="shared" si="0"/>
         <v>농협/894-4629-468857</v>
       </c>
-      <c r="T7" s="17" t="str">
+      <c r="V7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U7" s="17" t="str">
+      <c r="W7" s="17" t="str">
         <f t="shared" si="2"/>
         <v>930899</v>
       </c>
-      <c r="V7" s="17" t="str">
+      <c r="X7" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="W7" s="17">
+      <c r="Y7" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
-      <c r="X7" s="17" t="str">
+      <c r="Z7" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>98</v>
@@ -5093,77 +5156,83 @@
       <c r="E8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="9">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="12">
+      <c r="N8" s="12">
         <v>2</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="P8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="Q8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="R8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="S8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="T8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="U8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>농협/273-7528-862196</v>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="V8" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="W8" s="17" t="str">
         <f t="shared" si="2"/>
         <v>001199</v>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="X8" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="W8" s="17">
+      <c r="Y8" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="Z8" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>98</v>
@@ -5171,77 +5240,83 @@
       <c r="E9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="9">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="L9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="12">
+      <c r="N9" s="12">
         <v>4</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="Q9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="R9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="S9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="T9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="17" t="str">
+      <c r="U9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/295-1855-371274</v>
       </c>
-      <c r="T9" s="17" t="str">
+      <c r="V9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U9" s="17" t="str">
+      <c r="W9" s="17" t="str">
         <f t="shared" si="2"/>
         <v>920699</v>
       </c>
-      <c r="V9" s="17" t="str">
+      <c r="X9" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="W9" s="17">
+      <c r="Y9" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
-      <c r="X9" s="17" t="str">
+      <c r="Z9" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>98</v>
@@ -5249,77 +5324,83 @@
       <c r="E10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="9">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="12">
+      <c r="N10" s="12">
         <v>2</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="P10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="Q10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="R10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="S10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="T10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="17" t="str">
+      <c r="U10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/869-2828-526225</v>
       </c>
-      <c r="T10" s="17" t="str">
+      <c r="V10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="U10" s="17" t="str">
+      <c r="W10" s="17" t="str">
         <f t="shared" si="2"/>
         <v>900699</v>
       </c>
-      <c r="V10" s="17" t="str">
+      <c r="X10" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="W10" s="17">
+      <c r="Y10" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="X10" s="17" t="str">
+      <c r="Z10" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>98</v>
@@ -5327,77 +5408,83 @@
       <c r="E11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="9">
+        <v>40</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="J11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="L11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="M11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="12">
+      <c r="N11" s="12">
         <v>3</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="Q11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="S11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="T11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="17" t="str">
+      <c r="U11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>농협/954-9797-760181</v>
       </c>
-      <c r="T11" s="17" t="str">
+      <c r="V11" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U11" s="17" t="str">
+      <c r="W11" s="17" t="str">
         <f t="shared" si="2"/>
         <v>900799</v>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="X11" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="W11" s="17">
+      <c r="Y11" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="X11" s="17" t="str">
+      <c r="Z11" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:26">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>98</v>
@@ -5405,77 +5492,83 @@
       <c r="E12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="9">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="J12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="L12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="M12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="12">
+      <c r="N12" s="12">
         <v>2</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="Q12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="R12" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="S12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="T12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="S12" s="17" t="str">
+      <c r="U12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/129-2235-418768</v>
       </c>
-      <c r="T12" s="17" t="str">
+      <c r="V12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U12" s="17" t="str">
+      <c r="W12" s="17" t="str">
         <f t="shared" si="2"/>
         <v>910699</v>
       </c>
-      <c r="V12" s="17" t="str">
+      <c r="X12" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1991</v>
       </c>
-      <c r="W12" s="17">
+      <c r="Y12" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="Z12" s="17" t="str">
         <f t="shared" si="5"/>
         <v>제주</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:26">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>98</v>
@@ -5483,77 +5576,83 @@
       <c r="E13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="9">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="J13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="L13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="M13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="12">
+      <c r="N13" s="12">
         <v>1</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="Q13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="R13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="S13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="T13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="S13" s="17" t="str">
+      <c r="U13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/404-5984-950896</v>
       </c>
-      <c r="T13" s="17" t="str">
+      <c r="V13" s="17" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="U13" s="17" t="str">
+      <c r="W13" s="17" t="str">
         <f t="shared" si="2"/>
         <v>000899</v>
       </c>
-      <c r="V13" s="17" t="str">
+      <c r="X13" s="17" t="str">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="W13" s="17">
-        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(H13, 8, 1)) &lt;= 2, "19" &amp; LEFT(H13, 2), "20" &amp; LEFT(H13, 2)))</f>
+      <c r="Y13" s="17">
+        <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J13, 8, 1)) &lt;= 2, "19" &amp; LEFT(J13, 2), "20" &amp; LEFT(J13, 2)))</f>
         <v>24</v>
       </c>
-      <c r="X13" s="17" t="str">
+      <c r="Z13" s="17" t="str">
         <f t="shared" si="5"/>
         <v>충청권</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:26">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>98</v>
@@ -5561,77 +5660,83 @@
       <c r="E14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="9">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="L14" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="M14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="12">
+      <c r="N14" s="12">
         <v>2</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="Q14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="R14" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="S14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="T14" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="U14" s="17" t="str">
         <f t="shared" si="0"/>
         <v>농협/756-6616-606584</v>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="V14" s="17" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="W14" s="17" t="str">
         <f t="shared" si="2"/>
         <v>921299</v>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="X14" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="W14" s="17">
+      <c r="Y14" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="Z14" s="17" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:26">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>98</v>
@@ -5639,77 +5744,83 @@
       <c r="E15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="9">
+        <v>40</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="J15" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="L15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="M15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="12">
+      <c r="N15" s="12">
         <v>2</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="Q15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="R15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="S15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="T15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="S15" s="17" t="str">
+      <c r="U15" s="17" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/588-1300-685386</v>
       </c>
-      <c r="T15" s="17" t="str">
+      <c r="V15" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U15" s="17" t="str">
+      <c r="W15" s="17" t="str">
         <f t="shared" si="2"/>
         <v>901199</v>
       </c>
-      <c r="V15" s="17" t="str">
+      <c r="X15" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="W15" s="17">
+      <c r="Y15" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="X15" s="17" t="str">
+      <c r="Z15" s="17" t="str">
         <f t="shared" si="5"/>
         <v>호남권</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:26">
       <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>98</v>
@@ -5717,77 +5828,83 @@
       <c r="E16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="9">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="J16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="L16" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="M16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="24">
+      <c r="N16" s="24">
         <v>1</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="O16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="Q16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="R16" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="S16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="T16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="17" t="str">
+      <c r="U16" s="17" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/694-9043-121446</v>
       </c>
-      <c r="T16" s="17" t="str">
+      <c r="V16" s="17" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="U16" s="17" t="str">
+      <c r="W16" s="17" t="str">
         <f t="shared" si="2"/>
         <v>941099</v>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="X16" s="17" t="str">
         <f t="shared" si="3"/>
         <v>1994</v>
       </c>
-      <c r="W16" s="17">
+      <c r="Y16" s="17">
         <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
-      <c r="X16" s="17" t="str">
+      <c r="Z16" s="17" t="str">
         <f t="shared" si="5"/>
         <v>수도권</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26">
       <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>98</v>
@@ -5795,82 +5912,88 @@
       <c r="E17" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="F17" s="9">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="24">
+        <v>1</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q17" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="R17" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="S17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="24">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="P17" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="S17" s="17" t="str">
-        <f t="shared" ref="S17:S21" si="6">Q17&amp; "/" &amp;R17</f>
+      <c r="U17" s="17" t="str">
+        <f t="shared" ref="U17:U21" si="6">S17&amp; "/" &amp;T17</f>
         <v>국민은행/939302-01-502195</v>
       </c>
-      <c r="T17" s="17" t="str">
-        <f t="shared" ref="T17:T21" si="7">IF(OR(MID(H17, 8, 1) = "3", MOD(MID(H17, 8, 1), 2) = 1), "남", "여")</f>
+      <c r="V17" s="17" t="str">
+        <f t="shared" ref="V17:V21" si="7">IF(OR(MID(J17, 8, 1) = "3", MOD(MID(J17, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="U17" s="17" t="str">
-        <f t="shared" ref="U17:U21" si="8">LEFT(H17, 6)</f>
+      <c r="W17" s="17" t="str">
+        <f t="shared" ref="W17:W21" si="8">LEFT(J17, 6)</f>
         <v>050323</v>
       </c>
-      <c r="V17" s="17" t="str">
-        <f t="shared" ref="V17:V21" si="9">IF(VALUE(MID(H17, 8, 1)) &lt;= 2, "19" &amp; LEFT(H17, 2), "20" &amp; LEFT(H17, 2))</f>
+      <c r="X17" s="17" t="str">
+        <f t="shared" ref="X17:X21" si="9">IF(VALUE(MID(J17, 8, 1)) &lt;= 2, "19" &amp; LEFT(J17, 2), "20" &amp; LEFT(J17, 2))</f>
         <v>2005</v>
       </c>
-      <c r="W17" s="17">
-        <f t="shared" ref="W17:W21" ca="1" si="10">YEAR(TODAY()) - VALUE(IF(VALUE(MID(H17, 8, 1)) &lt;= 2, "19" &amp; LEFT(H17, 2), "20" &amp; LEFT(H17, 2)))</f>
+      <c r="Y17" s="17">
+        <f t="shared" ref="Y17:Y21" ca="1" si="10">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J17, 8, 1)) &lt;= 2, "19" &amp; LEFT(J17, 2), "20" &amp; LEFT(J17, 2)))</f>
         <v>19</v>
       </c>
-      <c r="X17" s="17" t="str">
-        <f t="shared" ref="X17:X21" si="11">IF(OR(ISNUMBER(SEARCH("서울", P17)), ISNUMBER(SEARCH("인천", P17)), ISNUMBER(SEARCH("경기", P17))), "수도권",
-   IF(OR(ISNUMBER(SEARCH("부산", P17)), ISNUMBER(SEARCH("대구", P17)), ISNUMBER(SEARCH("울산", P17)), ISNUMBER(SEARCH("경북", P17)), ISNUMBER(SEARCH("경남", P17)), ISNUMBER(SEARCH("양산", P17)), ISNUMBER(SEARCH("김해", P17)), ISNUMBER(SEARCH("창원", P17)), ISNUMBER(SEARCH("경상북도", P17)), ISNUMBER(SEARCH("경상남도", P17))), "경상권",
-   IF(OR(ISNUMBER(SEARCH("광주", P17)), ISNUMBER(SEARCH("전북", P17)), ISNUMBER(SEARCH("전남", P17)), ISNUMBER(SEARCH("전라북도", P17)), ISNUMBER(SEARCH("전라남도", P17))), "호남권",
-   IF(OR(ISNUMBER(SEARCH("대전", P17)), ISNUMBER(SEARCH("충북", P17)), ISNUMBER(SEARCH("세종", P17)), ISNUMBER(SEARCH("충남", P17)), ISNUMBER(SEARCH("충청북도", P17)), ISNUMBER(SEARCH("충청남도", P17))), "충청권",
-   IF(ISNUMBER(SEARCH("강원", P17)), "강원권",
-   IF(ISNUMBER(SEARCH("제주", P17)), "제주"))))))</f>
+      <c r="Z17" s="17" t="str">
+        <f t="shared" ref="Z17:Z21" si="11">IF(OR(ISNUMBER(SEARCH("서울", R17)), ISNUMBER(SEARCH("인천", R17)), ISNUMBER(SEARCH("경기", R17))), "수도권",
+   IF(OR(ISNUMBER(SEARCH("부산", R17)), ISNUMBER(SEARCH("대구", R17)), ISNUMBER(SEARCH("울산", R17)), ISNUMBER(SEARCH("경북", R17)), ISNUMBER(SEARCH("경남", R17)), ISNUMBER(SEARCH("양산", R17)), ISNUMBER(SEARCH("김해", R17)), ISNUMBER(SEARCH("창원", R17)), ISNUMBER(SEARCH("경상북도", R17)), ISNUMBER(SEARCH("경상남도", R17))), "경상권",
+   IF(OR(ISNUMBER(SEARCH("광주", R17)), ISNUMBER(SEARCH("전북", R17)), ISNUMBER(SEARCH("전남", R17)), ISNUMBER(SEARCH("전라북도", R17)), ISNUMBER(SEARCH("전라남도", R17))), "호남권",
+   IF(OR(ISNUMBER(SEARCH("대전", R17)), ISNUMBER(SEARCH("충북", R17)), ISNUMBER(SEARCH("세종", R17)), ISNUMBER(SEARCH("충남", R17)), ISNUMBER(SEARCH("충청북도", R17)), ISNUMBER(SEARCH("충청남도", R17))), "충청권",
+   IF(ISNUMBER(SEARCH("강원", R17)), "강원권",
+   IF(ISNUMBER(SEARCH("제주", R17)), "제주"))))))</f>
         <v>경상권</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:26">
       <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>98</v>
@@ -5878,77 +6001,83 @@
       <c r="E18" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="19" t="s">
+      <c r="F18" s="9">
+        <v>40</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="24">
+        <v>1</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="S18" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="T18" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="J18" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="24">
-        <v>1</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="S18" s="17" t="str">
+      <c r="U18" s="17" t="str">
         <f t="shared" si="6"/>
         <v>NH농협/356-1382-5638-33</v>
       </c>
-      <c r="T18" s="17" t="str">
+      <c r="V18" s="17" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="U18" s="17" t="str">
+      <c r="W18" s="17" t="str">
         <f t="shared" si="8"/>
         <v>050507</v>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="X18" s="17" t="str">
         <f t="shared" si="9"/>
         <v>2005</v>
       </c>
-      <c r="W18" s="17">
+      <c r="Y18" s="17">
         <f t="shared" ca="1" si="10"/>
         <v>19</v>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="Z18" s="17" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:26">
       <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>98</v>
@@ -5956,77 +6085,83 @@
       <c r="E19" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="H19" s="19" t="s">
+      <c r="F19" s="9">
+        <v>40</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="24">
+        <v>3</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="T19" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="J19" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="24">
-        <v>3</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="S19" s="17" t="str">
+      <c r="U19" s="17" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-23-3090456</v>
       </c>
-      <c r="T19" s="17" t="str">
+      <c r="V19" s="17" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="U19" s="17" t="str">
+      <c r="W19" s="17" t="str">
         <f t="shared" si="8"/>
         <v>020523</v>
       </c>
-      <c r="V19" s="17" t="str">
+      <c r="X19" s="17" t="str">
         <f t="shared" si="9"/>
         <v>2002</v>
       </c>
-      <c r="W19" s="17">
+      <c r="Y19" s="17">
         <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
-      <c r="X19" s="17" t="str">
+      <c r="Z19" s="17" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:26">
       <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>98</v>
@@ -6034,77 +6169,83 @@
       <c r="E20" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="F20" s="9">
+        <v>40</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="24">
+        <v>3</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="T20" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="24">
-        <v>3</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="S20" s="17" t="str">
+      <c r="U20" s="17" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-22-9308228</v>
       </c>
-      <c r="T20" s="17" t="str">
+      <c r="V20" s="17" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="U20" s="17" t="str">
+      <c r="W20" s="17" t="str">
         <f t="shared" si="8"/>
         <v>040902</v>
       </c>
-      <c r="V20" s="17" t="str">
+      <c r="X20" s="17" t="str">
         <f t="shared" si="9"/>
         <v>2004</v>
       </c>
-      <c r="W20" s="17">
+      <c r="Y20" s="17">
         <f t="shared" ca="1" si="10"/>
         <v>20</v>
       </c>
-      <c r="X20" s="17" t="str">
+      <c r="Z20" s="17" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:26">
       <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="78" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>98</v>
@@ -6112,66 +6253,72 @@
       <c r="E21" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="78">
+        <v>40</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="24">
+        <v>3</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="Q21" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="T21" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="I21" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="24">
-        <v>3</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="P21" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="S21" s="17" t="str">
+      <c r="U21" s="17" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-22-2528791</v>
       </c>
-      <c r="T21" s="17" t="str">
+      <c r="V21" s="17" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="U21" s="17" t="str">
+      <c r="W21" s="17" t="str">
         <f t="shared" si="8"/>
         <v>041012</v>
       </c>
-      <c r="V21" s="17" t="str">
+      <c r="X21" s="17" t="str">
         <f t="shared" si="9"/>
         <v>2004</v>
       </c>
-      <c r="W21" s="17">
+      <c r="Y21" s="17">
         <f t="shared" ca="1" si="10"/>
         <v>20</v>
       </c>
-      <c r="X21" s="17" t="str">
+      <c r="Z21" s="17" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
@@ -6187,7 +6334,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A34" sqref="A34:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6200,13 +6347,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1">
       <c r="A2" s="25" t="s">
@@ -6226,7 +6373,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickTop="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="105" t="s">
         <v>115</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -6243,7 +6390,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="93"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="34" t="s">
         <v>143</v>
       </c>
@@ -6254,7 +6401,7 @@
       <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="35" t="s">
         <v>120</v>
       </c>
@@ -6265,7 +6412,7 @@
       <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="93"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="34" t="s">
         <v>122</v>
       </c>
@@ -6276,7 +6423,7 @@
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:5" ht="17.25">
-      <c r="A7" s="93"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="36" t="s">
         <v>124</v>
       </c>
@@ -6287,7 +6434,7 @@
       <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="93"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="34" t="s">
         <v>144</v>
       </c>
@@ -6298,7 +6445,7 @@
       <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="93"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="34" t="s">
         <v>126</v>
       </c>
@@ -6313,7 +6460,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="93"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="36" t="s">
         <v>129</v>
       </c>
@@ -6324,7 +6471,7 @@
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="37" t="s">
         <v>131</v>
       </c>
@@ -6335,7 +6482,7 @@
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="34" t="s">
         <v>145</v>
       </c>
@@ -6346,7 +6493,7 @@
       <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="35" t="s">
         <v>134</v>
       </c>
@@ -6357,7 +6504,7 @@
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="17.25">
-      <c r="A14" s="93"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="37" t="s">
         <v>131</v>
       </c>
@@ -6368,25 +6515,25 @@
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="95" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="93"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="93"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="36" t="s">
         <v>137</v>
       </c>
@@ -6397,7 +6544,7 @@
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="93"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="36" t="s">
         <v>139</v>
       </c>
@@ -6408,7 +6555,7 @@
       <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="93"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="36" t="s">
         <v>141</v>
       </c>
@@ -6419,21 +6566,21 @@
       <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="93"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="36"/>
       <c r="C20" s="30"/>
       <c r="D20" s="36"/>
       <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A21" s="94"/>
+      <c r="A21" s="107"/>
       <c r="B21" s="38"/>
       <c r="C21" s="32"/>
       <c r="D21" s="38"/>
       <c r="E21" s="32"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="100" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="34" t="s">
@@ -6446,7 +6593,7 @@
       <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="88"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="34" t="s">
         <v>149</v>
       </c>
@@ -6457,7 +6604,7 @@
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="88"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="34" t="s">
         <v>151</v>
       </c>
@@ -6468,7 +6615,7 @@
       <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="88"/>
+      <c r="A27" s="101"/>
       <c r="B27" s="34" t="s">
         <v>153</v>
       </c>
@@ -6479,7 +6626,7 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="88"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="34" t="s">
         <v>155</v>
       </c>
@@ -6490,7 +6637,7 @@
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="88"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="34" t="s">
         <v>157</v>
       </c>
@@ -6501,7 +6648,7 @@
       <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="88"/>
+      <c r="A30" s="101"/>
       <c r="B30" s="53" t="s">
         <v>159</v>
       </c>
@@ -6512,7 +6659,7 @@
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A31" s="89"/>
+      <c r="A31" s="102"/>
       <c r="B31" s="38" t="s">
         <v>161</v>
       </c>
@@ -6521,7 +6668,7 @@
       <c r="E31" s="32"/>
     </row>
     <row r="34" spans="1:5" ht="17.25">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="100" t="s">
         <v>162</v>
       </c>
       <c r="B34" s="39" t="s">
@@ -6538,7 +6685,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="88"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="34" t="s">
         <v>166</v>
       </c>
@@ -6553,7 +6700,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.25">
-      <c r="A36" s="88"/>
+      <c r="A36" s="101"/>
       <c r="B36" s="34" t="s">
         <v>169</v>
       </c>
@@ -6568,7 +6715,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="88"/>
+      <c r="A37" s="101"/>
       <c r="B37" s="34" t="s">
         <v>171</v>
       </c>
@@ -6583,7 +6730,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="88"/>
+      <c r="A38" s="101"/>
       <c r="B38" s="34" t="s">
         <v>173</v>
       </c>
@@ -6598,7 +6745,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="88"/>
+      <c r="A39" s="101"/>
       <c r="B39" s="34" t="s">
         <v>176</v>
       </c>
@@ -6609,7 +6756,7 @@
       <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="88"/>
+      <c r="A40" s="101"/>
       <c r="B40" s="34" t="s">
         <v>177</v>
       </c>
@@ -6624,33 +6771,33 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="88"/>
+      <c r="A41" s="101"/>
       <c r="B41" s="34" t="s">
         <v>179</v>
       </c>
       <c r="C41" s="64" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>179</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A42" s="89"/>
+      <c r="A42" s="102"/>
       <c r="B42" s="54" t="s">
         <v>180</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>180</v>
       </c>
       <c r="E42" s="52" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6681,436 +6828,643 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3755A036-A738-4735-B900-5D4EBF9F9F0A}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" thickBot="1">
-      <c r="A1" s="113" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
+    <row r="1" spans="1:5" ht="28.5" thickBot="1">
+      <c r="A1" s="117" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="110" t="s">
-        <v>181</v>
+      <c r="A2" s="122" t="s">
+        <v>283</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D2" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="115">
-        <v>45649</v>
+      <c r="E2" s="87" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="74" t="s">
-        <v>186</v>
+      <c r="A3" s="120"/>
+      <c r="B3" s="94" t="s">
+        <v>279</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="D3" s="77" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="120"/>
+      <c r="B4" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="111"/>
-      <c r="B4" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="D4" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="120"/>
+      <c r="B5" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="48"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="111"/>
-      <c r="B5" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="57">
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A6" s="120"/>
+      <c r="B6" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="57">
         <f>COUNT(참여자명단!A2:A21)</f>
         <v>20</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="58" t="s">
+      <c r="D6" s="68"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="120"/>
+      <c r="B7" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="120"/>
+      <c r="B8" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="50"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="120"/>
+      <c r="B9" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="59" t="s">
+      <c r="C9" s="60" t="s">
         <v>189</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="111"/>
-      <c r="B8" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="61">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="111"/>
-      <c r="B9" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>194</v>
       </c>
       <c r="D9" s="68"/>
       <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="111"/>
-      <c r="B10" s="80" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="60" t="str">
-        <f>C8&amp; "~" &amp; C9</f>
+      <c r="A10" s="120"/>
+      <c r="B10" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="120"/>
+      <c r="B11" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="60" t="str">
+        <f>C9&amp; "~" &amp; C10</f>
         <v>2024.12.23~2024.12.30</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="61"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="104" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="106" t="s">
+      <c r="D11" s="68"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A12" s="120"/>
+      <c r="B12" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A13" s="120"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A14" s="120"/>
+      <c r="B14" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="98">
+        <v>20</v>
+      </c>
+      <c r="D14" s="69"/>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="120"/>
+      <c r="B15" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="60">
+        <v>1</v>
+      </c>
+      <c r="D15" s="69"/>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A16" s="121"/>
+      <c r="B16" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="99">
+        <f>C14-C15</f>
+        <v>19</v>
+      </c>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="120"/>
+      <c r="B20" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="120"/>
+      <c r="B21" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="101" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="41"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="70">
-        <v>2</v>
-      </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="102"/>
-      <c r="B20" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="102"/>
-      <c r="B21" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="102"/>
-      <c r="B22" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="102"/>
-      <c r="B23" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="41"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="55" t="str">
+        <f>C8</f>
+        <v>광고 마케팅</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A23" s="120"/>
+      <c r="B23" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" s="48">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="41"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="70" t="str">
-        <f>LEFT(C23, FIND("~", C23) - 2)</f>
-        <v>2024.11.18</v>
-      </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="102"/>
-      <c r="B26" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="70" t="str">
-        <f>LEFT(C23, FIND("~", C23) - 2)</f>
-        <v>2024.11.18</v>
-      </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="41"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="79" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="58" t="str">
+        <f>C23&amp;"~"&amp;C24</f>
+        <v>2024.12.31~2025.01.27</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="50"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25">
+      <c r="A26" s="120"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="102"/>
-      <c r="B27" s="84" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="41"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="41"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="41"/>
+      <c r="A29" s="120"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="61"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" s="102"/>
-      <c r="B30" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="84" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="41"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A31" s="121"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="84" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>235</v>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A34" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="70" t="str">
+        <f>C21</f>
+        <v>[노마드랩] 빅데이터 활용 개발</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="41"/>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="102"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="70"/>
+    <row r="35" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A35" s="115"/>
+      <c r="B35" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>197</v>
+      </c>
       <c r="D35" s="71"/>
       <c r="E35" s="41"/>
     </row>
-    <row r="36" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="72"/>
+    <row r="36" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A36" s="115"/>
+      <c r="B36" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="70">
+        <v>2</v>
+      </c>
+      <c r="D36" s="71"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="115"/>
+      <c r="B37" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="115"/>
+      <c r="B38" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="71"/>
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="115"/>
+      <c r="B39" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="71"/>
+      <c r="E39" s="41"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="115"/>
+      <c r="B40" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="115"/>
+      <c r="B41" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="70" t="str">
+        <f>C25</f>
+        <v>2024.12.31~2025.01.27</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="115"/>
+      <c r="B42" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="71"/>
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="115"/>
+      <c r="B43" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="115"/>
+      <c r="B44" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="70" t="str">
+        <f>LEFT(C42, FIND("~", C42) - 2)</f>
+        <v>2024.11.18</v>
+      </c>
+      <c r="D44" s="71"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="115"/>
+      <c r="B45" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="70" t="str">
+        <f>LEFT(C42, FIND("~", C42) - 2)</f>
+        <v>2024.11.18</v>
+      </c>
+      <c r="D45" s="71"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="115"/>
+      <c r="B46" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="71"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="115"/>
+      <c r="B47" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="71"/>
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="115"/>
+      <c r="B48" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="115"/>
+      <c r="B49" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="115"/>
+      <c r="B50" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="41"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="115"/>
+      <c r="B51" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="41"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="115"/>
+      <c r="B52" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="41"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="115"/>
+      <c r="B53" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="41"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="115"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="41"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A55" s="116"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A15:A36"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="A2:A12"/>
+  <mergeCells count="4">
+    <mergeCell ref="A34:A55"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A19:A31"/>
+    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{D8AF070D-BFCE-4540-B8D9-8237B909A31C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C26" xr:uid="{D8AF070D-BFCE-4540-B8D9-8237B909A31C}">
       <formula1>"광고 마케팅,IT,행정"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{78F092DB-DFFF-4EEF-9CD5-749A723EF550}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C12:C13" xr:uid="{78F092DB-DFFF-4EEF-9CD5-749A723EF550}">
       <formula1>"IT  분야 일경험 프로그램 수행을 위해 필수적인 기초 소양 배양, 데이터 수집/전처리 기술 함양과 서비스를 개발 및 운영 인력 양성,마케팅 분야의 일경험 프로그램 수행을 위해 필수적인 기초 소양 배양"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{5CAE1323-563C-4581-B313-24BF8D0FFC39}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35" xr:uid="{5CAE1323-563C-4581-B313-24BF8D0FFC39}">
       <formula1>"인턴형,프로젝트형"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15:E17 C17" xr:uid="{74331E6A-CEE7-4E27-B531-88E6D8B90375}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E36 C36" xr:uid="{74331E6A-CEE7-4E27-B531-88E6D8B90375}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{0EDA80EA-DBCB-4C77-BBAB-459D5454DF7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38" xr:uid="{0EDA80EA-DBCB-4C77-BBAB-459D5454DF7F}">
       <formula1>"광고마케팅,IT,행정,회계"</formula1>
     </dataValidation>
   </dataValidations>

--- a/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
+++ b/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
@@ -5,17 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\미래내일일경험 공유\python_lab\07. 한글 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\사용자\Desktop\미래내일일경험\python_lab\07. 한글 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9915D7A-009B-4358-9BC1-AF92F15440C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBBC5CF-BF32-4439-8211-E033AF3E03B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참여자명단" sheetId="1" r:id="rId1"/>
     <sheet name="쇼우테크" sheetId="2" r:id="rId2"/>
     <sheet name="사전직무,운영기관,일경험 정보" sheetId="3" r:id="rId3"/>
+    <sheet name="일경험 정보ㅁ" sheetId="5" r:id="rId4"/>
+    <sheet name="ㅁㄴㅇ" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="307">
   <si>
     <t>특이사항 기재</t>
   </si>
@@ -582,10 +584,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>참여기업</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -658,55 +656,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사업장주소</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>본사</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -756,76 +705,12 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사업장주소</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일경험 장소</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>피보험자수</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>명</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3046,6 +2931,74 @@
   </si>
   <si>
     <t>운영기관 소재지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여기업
+정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소재지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>부산광역시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연제구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반송로 30</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3053,12 +3006,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  <numFmts count="2">
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3429,6 +3381,14 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3885,7 +3845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3911,137 +3871,34 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="20" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="25" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4072,14 +3929,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4110,9 +3959,6 @@
     <xf numFmtId="0" fontId="32" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4176,48 +4022,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4243,6 +4047,173 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4521,8 +4492,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4560,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>88</v>
@@ -4569,13 +4540,13 @@
         <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>2</v>
@@ -4633,12 +4604,12 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>233</v>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>98</v>
@@ -4646,70 +4617,70 @@
       <c r="E2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>40</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="G2" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="69">
         <v>3</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14" t="s">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="17" t="str">
+      <c r="U2" s="74" t="str">
         <f t="shared" ref="U2:U16" si="0">S2&amp; "/" &amp;T2</f>
         <v>신한은행/605-2241-148731</v>
       </c>
-      <c r="V2" s="17" t="str">
+      <c r="V2" s="74" t="str">
         <f>IF(OR(MID(J2, 8, 1) = "3", MOD(MID(J2, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="W2" s="17" t="str">
+      <c r="W2" s="74" t="str">
         <f>LEFT(J2, 6)</f>
         <v>900699</v>
       </c>
-      <c r="X2" s="17" t="str">
+      <c r="X2" s="74" t="str">
         <f>IF(VALUE(MID(J2, 8, 1)) &lt;= 2, "19" &amp; LEFT(J2, 2), "20" &amp; LEFT(J2, 2))</f>
         <v>1990</v>
       </c>
-      <c r="Y2" s="17">
+      <c r="Y2" s="74">
         <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J2, 8, 1)) &lt;= 2, "19" &amp; LEFT(J2, 2), "20" &amp; LEFT(J2, 2)))</f>
         <v>34</v>
       </c>
-      <c r="Z2" s="17" t="str">
+      <c r="Z2" s="74" t="str">
         <f>IF(OR(ISNUMBER(SEARCH("서울", R2)), ISNUMBER(SEARCH("인천", R2)), ISNUMBER(SEARCH("경기", R2))), "수도권",
    IF(OR(ISNUMBER(SEARCH("부산", R2)), ISNUMBER(SEARCH("대구", R2)), ISNUMBER(SEARCH("울산", R2)), ISNUMBER(SEARCH("경북", R2)), ISNUMBER(SEARCH("경남", R2)), ISNUMBER(SEARCH("양산", R2)), ISNUMBER(SEARCH("김해", R2)), ISNUMBER(SEARCH("창원", R2)), ISNUMBER(SEARCH("경상북도", R2)), ISNUMBER(SEARCH("경상남도", R2))), "경상권",
    IF(OR(ISNUMBER(SEARCH("광주", R2)), ISNUMBER(SEARCH("전북", R2)), ISNUMBER(SEARCH("전남", R2)), ISNUMBER(SEARCH("전라북도", R2)), ISNUMBER(SEARCH("전라남도", R2))), "호남권",
@@ -4720,12 +4691,12 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="9" t="s">
-        <v>233</v>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>98</v>
@@ -4733,70 +4704,70 @@
       <c r="E3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>40</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="69">
         <v>3</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14" t="s">
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="17" t="str">
+      <c r="U3" s="74" t="str">
         <f t="shared" si="0"/>
         <v>국민은행/296-6536-108357</v>
       </c>
-      <c r="V3" s="17" t="str">
+      <c r="V3" s="74" t="str">
         <f t="shared" ref="V3:V16" si="1">IF(OR(MID(J3, 8, 1) = "3", MOD(MID(J3, 8, 1), 2) = 1), "남", "여")</f>
         <v>여</v>
       </c>
-      <c r="W3" s="17" t="str">
+      <c r="W3" s="74" t="str">
         <f t="shared" ref="W3:W16" si="2">LEFT(J3, 6)</f>
         <v>950499</v>
       </c>
-      <c r="X3" s="17" t="str">
+      <c r="X3" s="74" t="str">
         <f t="shared" ref="X3:X16" si="3">IF(VALUE(MID(J3, 8, 1)) &lt;= 2, "19" &amp; LEFT(J3, 2), "20" &amp; LEFT(J3, 2))</f>
         <v>1995</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="74">
         <f t="shared" ref="Y3:Y16" ca="1" si="4">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J3, 8, 1)) &lt;= 2, "19" &amp; LEFT(J3, 2), "20" &amp; LEFT(J3, 2)))</f>
         <v>29</v>
       </c>
-      <c r="Z3" s="17" t="str">
+      <c r="Z3" s="74" t="str">
         <f t="shared" ref="Z3:Z16" si="5">IF(OR(ISNUMBER(SEARCH("서울", R3)), ISNUMBER(SEARCH("인천", R3)), ISNUMBER(SEARCH("경기", R3))), "수도권",
    IF(OR(ISNUMBER(SEARCH("부산", R3)), ISNUMBER(SEARCH("대구", R3)), ISNUMBER(SEARCH("울산", R3)), ISNUMBER(SEARCH("경북", R3)), ISNUMBER(SEARCH("경남", R3)), ISNUMBER(SEARCH("양산", R3)), ISNUMBER(SEARCH("김해", R3)), ISNUMBER(SEARCH("창원", R3)), ISNUMBER(SEARCH("경상북도", R3)), ISNUMBER(SEARCH("경상남도", R3))), "경상권",
    IF(OR(ISNUMBER(SEARCH("광주", R3)), ISNUMBER(SEARCH("전북", R3)), ISNUMBER(SEARCH("전남", R3)), ISNUMBER(SEARCH("전라북도", R3)), ISNUMBER(SEARCH("전라남도", R3))), "호남권",
@@ -4807,12 +4778,12 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="9" t="s">
-        <v>233</v>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>98</v>
@@ -4820,83 +4791,83 @@
       <c r="E4" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>40</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" s="19" t="s">
+      <c r="G4" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="69">
         <v>2</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="17" t="str">
+      <c r="U4" s="74" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/309-4311-417843</v>
       </c>
-      <c r="V4" s="17" t="str">
+      <c r="V4" s="74" t="str">
         <f>IF(OR(MID(J4, 8, 1) = "3", MOD(MID(J4, 8, 1), 2) = 1), "남", "여")</f>
         <v>여</v>
       </c>
-      <c r="W4" s="17" t="str">
+      <c r="W4" s="74" t="str">
         <f t="shared" si="2"/>
         <v>960399</v>
       </c>
-      <c r="X4" s="17" t="str">
+      <c r="X4" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1996</v>
       </c>
-      <c r="Y4" s="17">
+      <c r="Y4" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>28</v>
       </c>
-      <c r="Z4" s="17" t="str">
+      <c r="Z4" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="9" t="s">
-        <v>233</v>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>98</v>
@@ -4904,83 +4875,83 @@
       <c r="E5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I5" s="19" t="s">
+      <c r="G5" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="69">
         <v>2</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="17" t="str">
+      <c r="U5" s="74" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/916-4781-629387</v>
       </c>
-      <c r="V5" s="17" t="str">
+      <c r="V5" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W5" s="17" t="str">
+      <c r="W5" s="74" t="str">
         <f t="shared" si="2"/>
         <v>930699</v>
       </c>
-      <c r="X5" s="17" t="str">
+      <c r="X5" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="Y5" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
-      <c r="Z5" s="17" t="str">
+      <c r="Z5" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="9" t="s">
-        <v>233</v>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>98</v>
@@ -4988,83 +4959,83 @@
       <c r="E6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>40</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="69">
         <v>4</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="17" t="str">
+      <c r="U6" s="74" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/165-6075-449479</v>
       </c>
-      <c r="V6" s="17" t="str">
+      <c r="V6" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W6" s="17" t="str">
+      <c r="W6" s="74" t="str">
         <f t="shared" si="2"/>
         <v>020699</v>
       </c>
-      <c r="X6" s="17" t="str">
+      <c r="X6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>2002</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="Z6" s="17" t="str">
+      <c r="Z6" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="9" t="s">
-        <v>233</v>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>98</v>
@@ -5072,83 +5043,83 @@
       <c r="E7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>40</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="G7" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="69">
         <v>1</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="T7" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="17" t="str">
+      <c r="U7" s="74" t="str">
         <f t="shared" si="0"/>
         <v>농협/894-4629-468857</v>
       </c>
-      <c r="V7" s="17" t="str">
+      <c r="V7" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W7" s="17" t="str">
+      <c r="W7" s="74" t="str">
         <f t="shared" si="2"/>
         <v>930899</v>
       </c>
-      <c r="X7" s="17" t="str">
+      <c r="X7" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
-      <c r="Z7" s="17" t="str">
+      <c r="Z7" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="9" t="s">
-        <v>233</v>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>98</v>
@@ -5156,83 +5127,83 @@
       <c r="E8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>40</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="G8" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="69">
         <v>2</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="T8" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U8" s="74" t="str">
         <f t="shared" si="0"/>
         <v>농협/273-7528-862196</v>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V8" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W8" s="74" t="str">
         <f t="shared" si="2"/>
         <v>001199</v>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X8" s="74" t="str">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="9" t="s">
-        <v>233</v>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>98</v>
@@ -5240,83 +5211,83 @@
       <c r="E9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>40</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="69">
         <v>4</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="T9" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="17" t="str">
+      <c r="U9" s="74" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/295-1855-371274</v>
       </c>
-      <c r="V9" s="17" t="str">
+      <c r="V9" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W9" s="17" t="str">
+      <c r="W9" s="74" t="str">
         <f t="shared" si="2"/>
         <v>920699</v>
       </c>
-      <c r="X9" s="17" t="str">
+      <c r="X9" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
-      <c r="Z9" s="17" t="str">
+      <c r="Z9" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="9" t="s">
-        <v>233</v>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>98</v>
@@ -5324,83 +5295,83 @@
       <c r="E10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>40</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="G10" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="69">
         <v>2</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="U10" s="17" t="str">
+      <c r="U10" s="74" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/869-2828-526225</v>
       </c>
-      <c r="V10" s="17" t="str">
+      <c r="V10" s="74" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="W10" s="17" t="str">
+      <c r="W10" s="74" t="str">
         <f t="shared" si="2"/>
         <v>900699</v>
       </c>
-      <c r="X10" s="17" t="str">
+      <c r="X10" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="Z10" s="17" t="str">
+      <c r="Z10" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="9" t="s">
-        <v>233</v>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>98</v>
@@ -5408,83 +5379,83 @@
       <c r="E11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>40</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="69">
         <v>3</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="15" t="s">
+      <c r="S11" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T11" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="17" t="str">
+      <c r="U11" s="74" t="str">
         <f t="shared" si="0"/>
         <v>농협/954-9797-760181</v>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="V11" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W11" s="17" t="str">
+      <c r="W11" s="74" t="str">
         <f t="shared" si="2"/>
         <v>900799</v>
       </c>
-      <c r="X11" s="17" t="str">
+      <c r="X11" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="Z11" s="17" t="str">
+      <c r="Z11" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="9" t="s">
-        <v>233</v>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>98</v>
@@ -5492,83 +5463,83 @@
       <c r="E12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>40</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="19" t="s">
+      <c r="G12" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="69">
         <v>2</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="U12" s="17" t="str">
+      <c r="U12" s="74" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/129-2235-418768</v>
       </c>
-      <c r="V12" s="17" t="str">
+      <c r="V12" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W12" s="17" t="str">
+      <c r="W12" s="74" t="str">
         <f t="shared" si="2"/>
         <v>910699</v>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="X12" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1991</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
-      <c r="Z12" s="17" t="str">
+      <c r="Z12" s="74" t="str">
         <f t="shared" si="5"/>
         <v>제주</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="9" t="s">
-        <v>233</v>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>98</v>
@@ -5576,83 +5547,83 @@
       <c r="E13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>40</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="G13" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="69">
         <v>1</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="S13" s="15" t="s">
+      <c r="S13" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="T13" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="17" t="str">
+      <c r="U13" s="74" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/404-5984-950896</v>
       </c>
-      <c r="V13" s="17" t="str">
+      <c r="V13" s="74" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="W13" s="17" t="str">
+      <c r="W13" s="74" t="str">
         <f t="shared" si="2"/>
         <v>000899</v>
       </c>
-      <c r="X13" s="17" t="str">
+      <c r="X13" s="74" t="str">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="74">
         <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J13, 8, 1)) &lt;= 2, "19" &amp; LEFT(J13, 2), "20" &amp; LEFT(J13, 2)))</f>
         <v>24</v>
       </c>
-      <c r="Z13" s="17" t="str">
+      <c r="Z13" s="74" t="str">
         <f t="shared" si="5"/>
         <v>충청권</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="9" t="s">
-        <v>233</v>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>98</v>
@@ -5660,83 +5631,83 @@
       <c r="E14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>40</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="G14" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="19" t="s">
+      <c r="M14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="69">
         <v>2</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="15" t="s">
+      <c r="S14" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T14" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U14" s="74" t="str">
         <f t="shared" si="0"/>
         <v>농협/756-6616-606584</v>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V14" s="74" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W14" s="74" t="str">
         <f t="shared" si="2"/>
         <v>921299</v>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="Y14" s="17">
+      <c r="Y14" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z14" s="74" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="9" t="s">
-        <v>233</v>
+      <c r="B15" s="76"/>
+      <c r="C15" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>98</v>
@@ -5744,240 +5715,240 @@
       <c r="E15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>40</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I15" s="19" t="s">
+      <c r="G15" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="19" t="s">
+      <c r="L15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="19" t="s">
+      <c r="M15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="69">
         <v>2</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="14" t="s">
+      <c r="R15" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="15" t="s">
+      <c r="S15" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="T15" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="U15" s="17" t="str">
+      <c r="U15" s="74" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/588-1300-685386</v>
       </c>
-      <c r="V15" s="17" t="str">
+      <c r="V15" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W15" s="17" t="str">
+      <c r="W15" s="74" t="str">
         <f t="shared" si="2"/>
         <v>901199</v>
       </c>
-      <c r="X15" s="17" t="str">
+      <c r="X15" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Y15" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="Z15" s="17" t="str">
+      <c r="Z15" s="74" t="str">
         <f t="shared" si="5"/>
         <v>호남권</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="18">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>40</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="12">
         <v>1</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="R16" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="15" t="s">
+      <c r="S16" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="T16" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="U16" s="17" t="str">
+      <c r="U16" s="74" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/694-9043-121446</v>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="V16" s="74" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W16" s="17" t="str">
+      <c r="W16" s="74" t="str">
         <f t="shared" si="2"/>
         <v>941099</v>
       </c>
-      <c r="X16" s="17" t="str">
+      <c r="X16" s="74" t="str">
         <f t="shared" si="3"/>
         <v>1994</v>
       </c>
-      <c r="Y16" s="17">
+      <c r="Y16" s="74">
         <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
-      <c r="Z16" s="17" t="str">
+      <c r="Z16" s="74" t="str">
         <f t="shared" si="5"/>
         <v>수도권</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="18">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>40</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="J17" s="19" t="s">
+      <c r="G17" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P17" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="R17" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="S17" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="73" t="s">
         <v>242</v>
       </c>
-      <c r="M17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="24">
-        <v>1</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="S17" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="U17" s="17" t="str">
+      <c r="U17" s="74" t="str">
         <f t="shared" ref="U17:U21" si="6">S17&amp; "/" &amp;T17</f>
         <v>국민은행/939302-01-502195</v>
       </c>
-      <c r="V17" s="17" t="str">
+      <c r="V17" s="74" t="str">
         <f t="shared" ref="V17:V21" si="7">IF(OR(MID(J17, 8, 1) = "3", MOD(MID(J17, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="W17" s="17" t="str">
+      <c r="W17" s="74" t="str">
         <f t="shared" ref="W17:W21" si="8">LEFT(J17, 6)</f>
         <v>050323</v>
       </c>
-      <c r="X17" s="17" t="str">
+      <c r="X17" s="74" t="str">
         <f t="shared" ref="X17:X21" si="9">IF(VALUE(MID(J17, 8, 1)) &lt;= 2, "19" &amp; LEFT(J17, 2), "20" &amp; LEFT(J17, 2))</f>
         <v>2005</v>
       </c>
-      <c r="Y17" s="17">
+      <c r="Y17" s="74">
         <f t="shared" ref="Y17:Y21" ca="1" si="10">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J17, 8, 1)) &lt;= 2, "19" &amp; LEFT(J17, 2), "20" &amp; LEFT(J17, 2)))</f>
         <v>19</v>
       </c>
-      <c r="Z17" s="17" t="str">
+      <c r="Z17" s="74" t="str">
         <f t="shared" ref="Z17:Z21" si="11">IF(OR(ISNUMBER(SEARCH("서울", R17)), ISNUMBER(SEARCH("인천", R17)), ISNUMBER(SEARCH("경기", R17))), "수도권",
    IF(OR(ISNUMBER(SEARCH("부산", R17)), ISNUMBER(SEARCH("대구", R17)), ISNUMBER(SEARCH("울산", R17)), ISNUMBER(SEARCH("경북", R17)), ISNUMBER(SEARCH("경남", R17)), ISNUMBER(SEARCH("양산", R17)), ISNUMBER(SEARCH("김해", R17)), ISNUMBER(SEARCH("창원", R17)), ISNUMBER(SEARCH("경상북도", R17)), ISNUMBER(SEARCH("경상남도", R17))), "경상권",
    IF(OR(ISNUMBER(SEARCH("광주", R17)), ISNUMBER(SEARCH("전북", R17)), ISNUMBER(SEARCH("전남", R17)), ISNUMBER(SEARCH("전라북도", R17)), ISNUMBER(SEARCH("전라남도", R17))), "호남권",
@@ -5988,337 +5959,337 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="18">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>40</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="J18" s="19" t="s">
+      <c r="G18" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="12">
+        <v>1</v>
+      </c>
+      <c r="O18" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q18" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="R18" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="S18" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="T18" s="73" t="s">
         <v>248</v>
       </c>
-      <c r="L18" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="24">
-        <v>1</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="S18" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="U18" s="17" t="str">
+      <c r="U18" s="74" t="str">
         <f t="shared" si="6"/>
         <v>NH농협/356-1382-5638-33</v>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="V18" s="74" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W18" s="17" t="str">
+      <c r="W18" s="74" t="str">
         <f t="shared" si="8"/>
         <v>050507</v>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="X18" s="74" t="str">
         <f t="shared" si="9"/>
         <v>2005</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="74">
         <f t="shared" ca="1" si="10"/>
         <v>19</v>
       </c>
-      <c r="Z18" s="17" t="str">
+      <c r="Z18" s="74" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="18">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="78" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="8">
+        <v>40</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="9">
-        <v>40</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="12">
+        <v>3</v>
+      </c>
+      <c r="O19" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="R19" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="S19" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="T19" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="24">
-        <v>3</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="S19" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="U19" s="17" t="str">
+      <c r="U19" s="74" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-23-3090456</v>
       </c>
-      <c r="V19" s="17" t="str">
+      <c r="V19" s="74" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W19" s="17" t="str">
+      <c r="W19" s="74" t="str">
         <f t="shared" si="8"/>
         <v>020523</v>
       </c>
-      <c r="X19" s="17" t="str">
+      <c r="X19" s="74" t="str">
         <f t="shared" si="9"/>
         <v>2002</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="Y19" s="74">
         <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
-      <c r="Z19" s="17" t="str">
+      <c r="Z19" s="74" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="18">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>40</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="J20" s="19" t="s">
+      <c r="G20" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="12">
+        <v>3</v>
+      </c>
+      <c r="O20" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="R20" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="T20" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="24">
-        <v>3</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="S20" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="U20" s="17" t="str">
+      <c r="U20" s="74" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-22-9308228</v>
       </c>
-      <c r="V20" s="17" t="str">
+      <c r="V20" s="74" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W20" s="17" t="str">
+      <c r="W20" s="74" t="str">
         <f t="shared" si="8"/>
         <v>040902</v>
       </c>
-      <c r="X20" s="17" t="str">
+      <c r="X20" s="74" t="str">
         <f t="shared" si="9"/>
         <v>2004</v>
       </c>
-      <c r="Y20" s="17">
+      <c r="Y20" s="74">
         <f t="shared" ca="1" si="10"/>
         <v>20</v>
       </c>
-      <c r="Z20" s="17" t="str">
+      <c r="Z20" s="74" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="18">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="11">
         <v>40</v>
       </c>
-      <c r="G21" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="12">
+        <v>3</v>
+      </c>
+      <c r="O21" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="Q21" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="R21" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="S21" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="T21" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="K21" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="24">
-        <v>3</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="S21" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="U21" s="17" t="str">
+      <c r="U21" s="74" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-22-2528791</v>
       </c>
-      <c r="V21" s="17" t="str">
+      <c r="V21" s="74" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W21" s="17" t="str">
+      <c r="W21" s="74" t="str">
         <f t="shared" si="8"/>
         <v>041012</v>
       </c>
-      <c r="X21" s="17" t="str">
+      <c r="X21" s="74" t="str">
         <f t="shared" si="9"/>
         <v>2004</v>
       </c>
-      <c r="Y21" s="17">
+      <c r="Y21" s="74">
         <f t="shared" ca="1" si="10"/>
         <v>20</v>
       </c>
-      <c r="Z21" s="17" t="str">
+      <c r="Z21" s="74" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
@@ -6334,470 +6305,471 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A42"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="79" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="79" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="81" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickTop="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="85">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="28">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="106"/>
-      <c r="B4" s="34" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+    </row>
+    <row r="5" spans="1:5" ht="17.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="90"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="92"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="90">
+        <v>222222222</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="92"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="90"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="86"/>
+      <c r="B10" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="92">
+        <v>0</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="89"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="92"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="90"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="86"/>
+      <c r="B15" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="86"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="86"/>
+      <c r="B17" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="86"/>
+      <c r="B18" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="86"/>
+      <c r="B19" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="86"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="106"/>
-      <c r="B6" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="30">
-        <v>222222222</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="106"/>
-      <c r="B8" s="34" t="s">
+      <c r="C24" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="106"/>
-      <c r="B10" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="34" t="s">
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="109"/>
+      <c r="B25" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="108" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="106"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="106"/>
-      <c r="B17" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="30"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="106"/>
-      <c r="B18" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="106"/>
-      <c r="B19" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="106"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A21" s="107"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="100" t="s">
+      <c r="C25" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="D25" s="110"/>
+      <c r="E25" s="90"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="109"/>
+      <c r="B26" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C26" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="101"/>
-      <c r="B25" s="34" t="s">
+      <c r="D26" s="110"/>
+      <c r="E26" s="90"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="109"/>
+      <c r="B27" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C27" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="101"/>
-      <c r="B26" s="34" t="s">
+      <c r="D27" s="110"/>
+      <c r="E27" s="90"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="109"/>
+      <c r="B28" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C28" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="101"/>
-      <c r="B27" s="34" t="s">
+      <c r="D28" s="110"/>
+      <c r="E28" s="90"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="109"/>
+      <c r="B29" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C29" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="101"/>
-      <c r="B28" s="34" t="s">
+      <c r="D29" s="110"/>
+      <c r="E29" s="90"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="109"/>
+      <c r="B30" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C30" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="101"/>
-      <c r="B29" s="34" t="s">
+      <c r="D30" s="110"/>
+      <c r="E30" s="90"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A31" s="113"/>
+      <c r="B31" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C31" s="114"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="105"/>
+    </row>
+    <row r="34" spans="1:5" ht="17.25">
+      <c r="A34" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="101"/>
-      <c r="B30" s="53" t="s">
+      <c r="B34" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C34" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A31" s="102"/>
-      <c r="B31" s="38" t="s">
+      <c r="D34" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25">
-      <c r="A34" s="100" t="s">
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="109"/>
+      <c r="B35" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="C35" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="D35" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="47" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="17.25">
+      <c r="A36" s="109"/>
+      <c r="B36" s="87" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="101"/>
-      <c r="B35" s="34" t="s">
+      <c r="C36" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="43" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="109"/>
+      <c r="B37" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="47" t="s">
+      <c r="C37" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="90" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.25">
-      <c r="A36" s="101"/>
-      <c r="B36" s="34" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="109"/>
+      <c r="B38" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="34" t="s">
+      <c r="C38" s="116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="101"/>
-      <c r="B37" s="34" t="s">
+      <c r="E38" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="47" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="109"/>
+      <c r="B39" s="87" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="101"/>
-      <c r="B38" s="34" t="s">
+      <c r="C39" s="116"/>
+      <c r="D39" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="117"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="109"/>
+      <c r="B40" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C40" s="118">
+        <v>999999</v>
+      </c>
+      <c r="D40" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" s="50" t="s">
+      <c r="E40" s="120">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="109"/>
+      <c r="B41" s="87" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="101"/>
-      <c r="B39" s="34" t="s">
+      <c r="C41" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E41" s="122" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A42" s="113"/>
+      <c r="B42" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="34" t="s">
+      <c r="C42" s="124" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="101"/>
-      <c r="B40" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="65">
-        <v>999999</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="E40" s="61">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="101"/>
-      <c r="B41" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="67" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A42" s="102"/>
-      <c r="B42" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>222</v>
+      <c r="E42" s="125" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6782,7 @@
     <mergeCell ref="A24:A31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E10" xr:uid="{DDCE7468-389F-48DE-84CA-263342FF0E11}">
       <formula1>"신기술·신성장유망기업,강소기업·청년친화강소기업,우수벤처기업,우수 중소기업(경영혁신형․기술혁신형 중소기업),사회적기업,기타 중소기업"</formula1>
     </dataValidation>
@@ -6830,8 +6802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3755A036-A738-4735-B900-5D4EBF9F9F0A}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6843,605 +6815,605 @@
     <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" thickBot="1">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A1" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="94" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="E5" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="79" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="57">
+      <c r="A6" s="66"/>
+      <c r="B6" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="22">
         <f>COUNT(참여자명단!A2:A21)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="120"/>
-      <c r="B8" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="120"/>
-      <c r="B9" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="120"/>
-      <c r="B10" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="61">
+      <c r="E10" s="26">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="C11" s="60" t="str">
+      <c r="A11" s="66"/>
+      <c r="B11" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="25" t="str">
         <f>C9&amp; "~" &amp; C10</f>
         <v>2024.12.23~2024.12.30</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="50"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A12" s="120"/>
-      <c r="B12" s="88" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="61"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A13" s="120"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="61"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A14" s="120"/>
-      <c r="B14" s="88" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="98">
+      <c r="A14" s="66"/>
+      <c r="B14" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="58">
         <v>20</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="61"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="120"/>
-      <c r="B15" s="80" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="60">
+      <c r="A15" s="66"/>
+      <c r="B15" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="61"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="97" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="99">
+      <c r="A16" s="67"/>
+      <c r="B16" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="59">
         <f>C14-C15</f>
         <v>19</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="82" t="s">
+      <c r="E19" s="55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="D20" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="120"/>
-      <c r="B20" s="96" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="94" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>293</v>
-      </c>
-    </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="120"/>
-      <c r="B22" s="94" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="55" t="str">
+      <c r="C22" s="20" t="str">
         <f>C8</f>
         <v>광고 마케팅</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A23" s="120"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C23" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="E23" s="48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="120"/>
-      <c r="B24" s="79" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="47"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="58" t="str">
+      <c r="A25" s="66"/>
+      <c r="B25" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="23" t="str">
         <f>C23&amp;"~"&amp;C24</f>
         <v>2024.12.31~2025.01.27</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="50"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" ht="17.25">
-      <c r="A26" s="120"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="120"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" s="120"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="50"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" s="120"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" s="120"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="121"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A34" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="70" t="str">
+      <c r="A34" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="31" t="str">
         <f>C21</f>
         <v>[노마드랩] 빅데이터 활용 개발</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="41"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="34" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A36" s="61"/>
+      <c r="B36" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="31">
+        <v>2</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="61"/>
+      <c r="B37" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="61"/>
+      <c r="B38" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C38" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="61"/>
+      <c r="B39" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="82" t="s">
+      <c r="C39" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="61"/>
+      <c r="B40" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="70">
-        <v>2</v>
-      </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="115"/>
-      <c r="B37" s="34" t="s">
+      <c r="C40" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="61"/>
+      <c r="B41" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="115"/>
-      <c r="B38" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="115"/>
-      <c r="B39" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="115"/>
-      <c r="B40" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="115"/>
-      <c r="B41" s="83" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="70" t="str">
+      <c r="C41" s="31" t="str">
         <f>C25</f>
         <v>2024.12.31~2025.01.27</v>
       </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="41"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="115"/>
-      <c r="B42" s="34" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="61"/>
+      <c r="B43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="61"/>
+      <c r="B44" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="115"/>
-      <c r="B43" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="70" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="115"/>
-      <c r="B44" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="70" t="str">
+      <c r="C44" s="31" t="str">
         <f>LEFT(C42, FIND("~", C42) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="41"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="15"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="115"/>
-      <c r="B45" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="70" t="str">
+      <c r="A45" s="61"/>
+      <c r="B45" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="31" t="str">
         <f>LEFT(C42, FIND("~", C42) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="41"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="115"/>
-      <c r="B46" s="84" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="61"/>
+      <c r="B47" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="61"/>
+      <c r="B48" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C48" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="61"/>
+      <c r="B49" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="41"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="115"/>
-      <c r="B47" s="84" t="s">
+      <c r="C49" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="61"/>
+      <c r="B50" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C50" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="41"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="115"/>
-      <c r="B48" s="84" t="s">
+      <c r="D50" s="32"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="61"/>
+      <c r="B51" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="41"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="115"/>
-      <c r="B49" s="84" t="s">
+      <c r="C51" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="C49" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="41"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="115"/>
-      <c r="B50" s="84" t="s">
+      <c r="D51" s="32"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="61"/>
+      <c r="B52" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C52" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="61"/>
+      <c r="B53" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="41"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="115"/>
-      <c r="B51" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="41"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="115"/>
-      <c r="B52" s="84" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="41"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="115"/>
-      <c r="B53" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="C53" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="41"/>
+      <c r="C53" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="15"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="115"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="41"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="15"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A55" s="116"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="72"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7470,4 +7442,677 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A78AC0-6806-4F87-9FCD-F3B333DF0A98}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.875" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A1" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="22">
+        <f>COUNT(참여자명단!A2:A21)</f>
+        <v>20</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>C9&amp; "~" &amp; C10</f>
+        <v>2024.12.23~2024.12.30</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="58">
+        <v>20</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A16" s="67"/>
+      <c r="B16" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="59">
+        <f>C14-C15</f>
+        <v>19</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="126"/>
+      <c r="B20" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="126"/>
+      <c r="B21" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="126"/>
+      <c r="B22" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f>C8</f>
+        <v>광고 마케팅</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A23" s="126"/>
+      <c r="B23" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="126"/>
+      <c r="B24" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="126"/>
+      <c r="B25" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>C23&amp;"~"&amp;C24</f>
+        <v>2024.12.31~2025.01.27</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25">
+      <c r="A26" s="126"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A27" s="126"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A28" s="126"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A29" s="126"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A30" s="126"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A31" s="127"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="35" spans="1:5" ht="19.5" customHeight="1"/>
+    <row r="36" spans="1:5" ht="17.25" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A19:A31"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C12:C13" xr:uid="{724BE747-B617-4A4E-AC4F-1EE84272D038}">
+      <formula1>"IT  분야 일경험 프로그램 수행을 위해 필수적인 기초 소양 배양, 데이터 수집/전처리 기술 함양과 서비스를 개발 및 운영 인력 양성,마케팅 분야의 일경험 프로그램 수행을 위해 필수적인 기초 소양 배양"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C26" xr:uid="{1CA0048F-D01D-48A7-A0F7-90C21B89B582}">
+      <formula1>"광고 마케팅,IT,행정"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F8445-7454-42F1-BECA-8CA3092D290F}">
+  <dimension ref="A3:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="73.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="17.25">
+      <c r="A3" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="31" t="str">
+        <f>'일경험 정보ㅁ'!C21</f>
+        <v>[노마드랩] 빅데이터 활용 개발</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="61"/>
+      <c r="B4" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="61"/>
+      <c r="B5" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="61"/>
+      <c r="B6" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="61"/>
+      <c r="B7" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="61"/>
+      <c r="B8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="61"/>
+      <c r="B9" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="61"/>
+      <c r="B10" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="31" t="str">
+        <f>'일경험 정보ㅁ'!C25</f>
+        <v>2024.12.31~2025.01.27</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="61"/>
+      <c r="B11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="61"/>
+      <c r="B12" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="61"/>
+      <c r="B13" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="31" t="str">
+        <f>LEFT(C11, FIND("~", C11) - 2)</f>
+        <v>2024.11.18</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="61"/>
+      <c r="B14" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="31" t="str">
+        <f>LEFT(C11, FIND("~", C11) - 2)</f>
+        <v>2024.11.18</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="61"/>
+      <c r="B15" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="61"/>
+      <c r="B16" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="61"/>
+      <c r="B17" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="61"/>
+      <c r="B18" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="61"/>
+      <c r="B19" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="61"/>
+      <c r="B20" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="61"/>
+      <c r="B21" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="61"/>
+      <c r="B22" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="61"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A24" s="62"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{969F53F7-6D84-4EC5-98AE-FFACF09551DA}">
+      <formula1>"광고마케팅,IT,행정,회계"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 C5" xr:uid="{71BFE9FC-D1D4-4B77-80C2-6EE096D02BB8}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{FDF116F3-1BF1-4345-AE28-FC19F9CC140C}">
+      <formula1>"인턴형,프로젝트형"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
+++ b/07. 한글 문서/[광고마케팅] 241223 KTCA_30명.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\사용자\Desktop\미래내일일경험\python_lab\07. 한글 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\미래내일일경험 공유\python_lab\07. 한글 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBBC5CF-BF32-4439-8211-E033AF3E03B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962C854-EEB4-49A8-A08C-77F6AA863ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="참여자명단" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="308">
   <si>
     <t>특이사항 기재</t>
   </si>
@@ -2999,6 +2999,10 @@
       </rPr>
       <t>반송로 30</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영기관 담당</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3007,8 +3011,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;"/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -3847,27 +3851,6 @@
   </cellStyleXfs>
   <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3892,10 +3875,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1"/>
@@ -3905,7 +3888,7 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="33" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="33" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3941,7 +3924,7 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="7" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="40" fillId="7" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4022,33 +4005,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4071,12 +4027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4086,9 +4036,6 @@
     <xf numFmtId="49" fontId="15" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4098,9 +4045,6 @@
     <xf numFmtId="49" fontId="20" fillId="7" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4131,45 +4075,18 @@
     <xf numFmtId="49" fontId="25" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="8" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="7" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4178,9 +4095,6 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4209,6 +4123,96 @@
     </xf>
     <xf numFmtId="49" fontId="20" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4493,194 +4497,196 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="49" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.875" style="61" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="61" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.625" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="49" style="61" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="61" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9" style="61"/>
+    <col min="25" max="25" width="7.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="100" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="9">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="1">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="69">
+      <c r="N2" s="53">
         <v>3</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="71" t="s">
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="72" t="s">
+      <c r="S2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="74" t="str">
+      <c r="U2" s="58" t="str">
         <f t="shared" ref="U2:U16" si="0">S2&amp; "/" &amp;T2</f>
         <v>신한은행/605-2241-148731</v>
       </c>
-      <c r="V2" s="74" t="str">
+      <c r="V2" s="58" t="str">
         <f>IF(OR(MID(J2, 8, 1) = "3", MOD(MID(J2, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="W2" s="74" t="str">
+      <c r="W2" s="58" t="str">
         <f>LEFT(J2, 6)</f>
         <v>900699</v>
       </c>
-      <c r="X2" s="74" t="str">
+      <c r="X2" s="58" t="str">
         <f>IF(VALUE(MID(J2, 8, 1)) &lt;= 2, "19" &amp; LEFT(J2, 2), "20" &amp; LEFT(J2, 2))</f>
         <v>1990</v>
       </c>
-      <c r="Y2" s="74">
+      <c r="Y2" s="58">
         <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J2, 8, 1)) &lt;= 2, "19" &amp; LEFT(J2, 2), "20" &amp; LEFT(J2, 2)))</f>
         <v>34</v>
       </c>
-      <c r="Z2" s="74" t="str">
+      <c r="Z2" s="58" t="str">
         <f>IF(OR(ISNUMBER(SEARCH("서울", R2)), ISNUMBER(SEARCH("인천", R2)), ISNUMBER(SEARCH("경기", R2))), "수도권",
    IF(OR(ISNUMBER(SEARCH("부산", R2)), ISNUMBER(SEARCH("대구", R2)), ISNUMBER(SEARCH("울산", R2)), ISNUMBER(SEARCH("경북", R2)), ISNUMBER(SEARCH("경남", R2)), ISNUMBER(SEARCH("양산", R2)), ISNUMBER(SEARCH("김해", R2)), ISNUMBER(SEARCH("창원", R2)), ISNUMBER(SEARCH("경상북도", R2)), ISNUMBER(SEARCH("경상남도", R2))), "경상권",
    IF(OR(ISNUMBER(SEARCH("광주", R2)), ISNUMBER(SEARCH("전북", R2)), ISNUMBER(SEARCH("전남", R2)), ISNUMBER(SEARCH("전라북도", R2)), ISNUMBER(SEARCH("전라남도", R2))), "호남권",
@@ -4691,83 +4697,83 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="9">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="1">
         <v>40</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="69">
+      <c r="N3" s="53">
         <v>3</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71" t="s">
+      <c r="Q3" s="54"/>
+      <c r="R3" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="73" t="s">
+      <c r="T3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="74" t="str">
+      <c r="U3" s="58" t="str">
         <f t="shared" si="0"/>
         <v>국민은행/296-6536-108357</v>
       </c>
-      <c r="V3" s="74" t="str">
+      <c r="V3" s="58" t="str">
         <f t="shared" ref="V3:V16" si="1">IF(OR(MID(J3, 8, 1) = "3", MOD(MID(J3, 8, 1), 2) = 1), "남", "여")</f>
         <v>여</v>
       </c>
-      <c r="W3" s="74" t="str">
+      <c r="W3" s="58" t="str">
         <f t="shared" ref="W3:W16" si="2">LEFT(J3, 6)</f>
         <v>950499</v>
       </c>
-      <c r="X3" s="74" t="str">
+      <c r="X3" s="58" t="str">
         <f t="shared" ref="X3:X16" si="3">IF(VALUE(MID(J3, 8, 1)) &lt;= 2, "19" &amp; LEFT(J3, 2), "20" &amp; LEFT(J3, 2))</f>
         <v>1995</v>
       </c>
-      <c r="Y3" s="74">
+      <c r="Y3" s="58">
         <f t="shared" ref="Y3:Y16" ca="1" si="4">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J3, 8, 1)) &lt;= 2, "19" &amp; LEFT(J3, 2), "20" &amp; LEFT(J3, 2)))</f>
         <v>29</v>
       </c>
-      <c r="Z3" s="74" t="str">
+      <c r="Z3" s="58" t="str">
         <f t="shared" ref="Z3:Z16" si="5">IF(OR(ISNUMBER(SEARCH("서울", R3)), ISNUMBER(SEARCH("인천", R3)), ISNUMBER(SEARCH("경기", R3))), "수도권",
    IF(OR(ISNUMBER(SEARCH("부산", R3)), ISNUMBER(SEARCH("대구", R3)), ISNUMBER(SEARCH("울산", R3)), ISNUMBER(SEARCH("경북", R3)), ISNUMBER(SEARCH("경남", R3)), ISNUMBER(SEARCH("양산", R3)), ISNUMBER(SEARCH("김해", R3)), ISNUMBER(SEARCH("창원", R3)), ISNUMBER(SEARCH("경상북도", R3)), ISNUMBER(SEARCH("경상남도", R3))), "경상권",
    IF(OR(ISNUMBER(SEARCH("광주", R3)), ISNUMBER(SEARCH("전북", R3)), ISNUMBER(SEARCH("전남", R3)), ISNUMBER(SEARCH("전라북도", R3)), ISNUMBER(SEARCH("전라남도", R3))), "호남권",
@@ -4778,1177 +4784,1177 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="9">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="1">
         <v>40</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="53">
         <v>2</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="73" t="s">
+      <c r="T4" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="74" t="str">
+      <c r="U4" s="58" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/309-4311-417843</v>
       </c>
-      <c r="V4" s="74" t="str">
+      <c r="V4" s="58" t="str">
         <f>IF(OR(MID(J4, 8, 1) = "3", MOD(MID(J4, 8, 1), 2) = 1), "남", "여")</f>
         <v>여</v>
       </c>
-      <c r="W4" s="74" t="str">
+      <c r="W4" s="58" t="str">
         <f t="shared" si="2"/>
         <v>960399</v>
       </c>
-      <c r="X4" s="74" t="str">
+      <c r="X4" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1996</v>
       </c>
-      <c r="Y4" s="74">
+      <c r="Y4" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>28</v>
       </c>
-      <c r="Z4" s="74" t="str">
+      <c r="Z4" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="9">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="1">
         <v>40</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="53">
         <v>2</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="71" t="s">
+      <c r="R5" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="72" t="s">
+      <c r="S5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="73" t="s">
+      <c r="T5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="74" t="str">
+      <c r="U5" s="58" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/916-4781-629387</v>
       </c>
-      <c r="V5" s="74" t="str">
+      <c r="V5" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W5" s="74" t="str">
+      <c r="W5" s="58" t="str">
         <f t="shared" si="2"/>
         <v>930699</v>
       </c>
-      <c r="X5" s="74" t="str">
+      <c r="X5" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="Y5" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
-      <c r="Z5" s="74" t="str">
+      <c r="Z5" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="9">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="1">
         <v>40</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="69">
+      <c r="N6" s="53">
         <v>4</v>
       </c>
-      <c r="O6" s="69" t="s">
+      <c r="O6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="71" t="s">
+      <c r="R6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="72" t="s">
+      <c r="S6" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="73" t="s">
+      <c r="T6" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="74" t="str">
+      <c r="U6" s="58" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/165-6075-449479</v>
       </c>
-      <c r="V6" s="74" t="str">
+      <c r="V6" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W6" s="74" t="str">
+      <c r="W6" s="58" t="str">
         <f t="shared" si="2"/>
         <v>020699</v>
       </c>
-      <c r="X6" s="74" t="str">
+      <c r="X6" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2002</v>
       </c>
-      <c r="Y6" s="74">
+      <c r="Y6" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>22</v>
       </c>
-      <c r="Z6" s="74" t="str">
+      <c r="Z6" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="9">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="1">
         <v>40</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="53">
         <v>1</v>
       </c>
-      <c r="O7" s="69" t="s">
+      <c r="O7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="69" t="s">
+      <c r="P7" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="70" t="s">
+      <c r="Q7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="71" t="s">
+      <c r="R7" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="72" t="s">
+      <c r="S7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="73" t="s">
+      <c r="T7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="U7" s="74" t="str">
+      <c r="U7" s="58" t="str">
         <f t="shared" si="0"/>
         <v>농협/894-4629-468857</v>
       </c>
-      <c r="V7" s="74" t="str">
+      <c r="V7" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W7" s="74" t="str">
+      <c r="W7" s="58" t="str">
         <f t="shared" si="2"/>
         <v>930899</v>
       </c>
-      <c r="X7" s="74" t="str">
+      <c r="X7" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1993</v>
       </c>
-      <c r="Y7" s="74">
+      <c r="Y7" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>31</v>
       </c>
-      <c r="Z7" s="74" t="str">
+      <c r="Z7" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="9">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="1">
         <v>40</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="53">
         <v>2</v>
       </c>
-      <c r="O8" s="69" t="s">
+      <c r="O8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="70" t="s">
+      <c r="Q8" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="71" t="s">
+      <c r="R8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="S8" s="72" t="s">
+      <c r="S8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="T8" s="73" t="s">
+      <c r="T8" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="U8" s="74" t="str">
+      <c r="U8" s="58" t="str">
         <f t="shared" si="0"/>
         <v>농협/273-7528-862196</v>
       </c>
-      <c r="V8" s="74" t="str">
+      <c r="V8" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W8" s="74" t="str">
+      <c r="W8" s="58" t="str">
         <f t="shared" si="2"/>
         <v>001199</v>
       </c>
-      <c r="X8" s="74" t="str">
+      <c r="X8" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Y8" s="74">
+      <c r="Y8" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>24</v>
       </c>
-      <c r="Z8" s="74" t="str">
+      <c r="Z8" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="1">
         <v>40</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="53">
         <v>4</v>
       </c>
-      <c r="O9" s="69" t="s">
+      <c r="O9" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="70" t="s">
+      <c r="Q9" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="71" t="s">
+      <c r="R9" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="72" t="s">
+      <c r="S9" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="73" t="s">
+      <c r="T9" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="74" t="str">
+      <c r="U9" s="58" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/295-1855-371274</v>
       </c>
-      <c r="V9" s="74" t="str">
+      <c r="V9" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W9" s="74" t="str">
+      <c r="W9" s="58" t="str">
         <f t="shared" si="2"/>
         <v>920699</v>
       </c>
-      <c r="X9" s="74" t="str">
+      <c r="X9" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="Y9" s="74">
+      <c r="Y9" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
-      <c r="Z9" s="74" t="str">
+      <c r="Z9" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="9">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="1">
         <v>40</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="69">
+      <c r="N10" s="53">
         <v>2</v>
       </c>
-      <c r="O10" s="69" t="s">
+      <c r="O10" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="72" t="s">
+      <c r="S10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="73" t="s">
+      <c r="T10" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="U10" s="74" t="str">
+      <c r="U10" s="58" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/869-2828-526225</v>
       </c>
-      <c r="V10" s="74" t="str">
+      <c r="V10" s="58" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="W10" s="74" t="str">
+      <c r="W10" s="58" t="str">
         <f t="shared" si="2"/>
         <v>900699</v>
       </c>
-      <c r="X10" s="74" t="str">
+      <c r="X10" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="Y10" s="74">
+      <c r="Y10" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="Z10" s="74" t="str">
+      <c r="Z10" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="9">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="1">
         <v>40</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="53">
         <v>3</v>
       </c>
-      <c r="O11" s="69" t="s">
+      <c r="O11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="69" t="s">
+      <c r="P11" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="71" t="s">
+      <c r="R11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S11" s="72" t="s">
+      <c r="S11" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="T11" s="73" t="s">
+      <c r="T11" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="74" t="str">
+      <c r="U11" s="58" t="str">
         <f t="shared" si="0"/>
         <v>농협/954-9797-760181</v>
       </c>
-      <c r="V11" s="74" t="str">
+      <c r="V11" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W11" s="74" t="str">
+      <c r="W11" s="58" t="str">
         <f t="shared" si="2"/>
         <v>900799</v>
       </c>
-      <c r="X11" s="74" t="str">
+      <c r="X11" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="Y11" s="74">
+      <c r="Y11" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="Z11" s="74" t="str">
+      <c r="Z11" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="9">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="1">
         <v>40</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="69">
+      <c r="N12" s="53">
         <v>2</v>
       </c>
-      <c r="O12" s="69" t="s">
+      <c r="O12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="P12" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="Q12" s="70" t="s">
+      <c r="Q12" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="72" t="s">
+      <c r="R12" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="S12" s="72" t="s">
+      <c r="S12" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="73" t="s">
+      <c r="T12" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="U12" s="74" t="str">
+      <c r="U12" s="58" t="str">
         <f t="shared" si="0"/>
         <v>신한은행/129-2235-418768</v>
       </c>
-      <c r="V12" s="74" t="str">
+      <c r="V12" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W12" s="74" t="str">
+      <c r="W12" s="58" t="str">
         <f t="shared" si="2"/>
         <v>910699</v>
       </c>
-      <c r="X12" s="74" t="str">
+      <c r="X12" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1991</v>
       </c>
-      <c r="Y12" s="74">
+      <c r="Y12" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>33</v>
       </c>
-      <c r="Z12" s="74" t="str">
+      <c r="Z12" s="58" t="str">
         <f t="shared" si="5"/>
         <v>제주</v>
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="9">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="1">
         <v>40</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="53">
         <v>1</v>
       </c>
-      <c r="O13" s="69" t="s">
+      <c r="O13" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="69" t="s">
+      <c r="P13" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="70" t="s">
+      <c r="Q13" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="75" t="s">
+      <c r="R13" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="S13" s="72" t="s">
+      <c r="S13" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="73" t="s">
+      <c r="T13" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="74" t="str">
+      <c r="U13" s="58" t="str">
         <f t="shared" si="0"/>
         <v>우리은행/404-5984-950896</v>
       </c>
-      <c r="V13" s="74" t="str">
+      <c r="V13" s="58" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="W13" s="74" t="str">
+      <c r="W13" s="58" t="str">
         <f t="shared" si="2"/>
         <v>000899</v>
       </c>
-      <c r="X13" s="74" t="str">
+      <c r="X13" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="Y13" s="74">
+      <c r="Y13" s="58">
         <f ca="1">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J13, 8, 1)) &lt;= 2, "19" &amp; LEFT(J13, 2), "20" &amp; LEFT(J13, 2)))</f>
         <v>24</v>
       </c>
-      <c r="Z13" s="74" t="str">
+      <c r="Z13" s="58" t="str">
         <f t="shared" si="5"/>
         <v>충청권</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="9">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="1">
         <v>40</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="53">
         <v>2</v>
       </c>
-      <c r="O14" s="69" t="s">
+      <c r="O14" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="69" t="s">
+      <c r="P14" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="70" t="s">
+      <c r="Q14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="72" t="s">
+      <c r="R14" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="72" t="s">
+      <c r="S14" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="T14" s="73" t="s">
+      <c r="T14" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="U14" s="74" t="str">
+      <c r="U14" s="58" t="str">
         <f t="shared" si="0"/>
         <v>농협/756-6616-606584</v>
       </c>
-      <c r="V14" s="74" t="str">
+      <c r="V14" s="58" t="str">
         <f t="shared" si="1"/>
         <v>여</v>
       </c>
-      <c r="W14" s="74" t="str">
+      <c r="W14" s="58" t="str">
         <f t="shared" si="2"/>
         <v>921299</v>
       </c>
-      <c r="X14" s="74" t="str">
+      <c r="X14" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1992</v>
       </c>
-      <c r="Y14" s="74">
+      <c r="Y14" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>32</v>
       </c>
-      <c r="Z14" s="74" t="str">
+      <c r="Z14" s="58" t="str">
         <f t="shared" si="5"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="9">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="60"/>
+      <c r="C15" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="1">
         <v>40</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="53">
         <v>2</v>
       </c>
-      <c r="O15" s="69" t="s">
+      <c r="O15" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="69" t="s">
+      <c r="P15" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="70" t="s">
+      <c r="Q15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="71" t="s">
+      <c r="R15" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="72" t="s">
+      <c r="S15" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="73" t="s">
+      <c r="T15" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="U15" s="74" t="str">
+      <c r="U15" s="58" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/588-1300-685386</v>
       </c>
-      <c r="V15" s="74" t="str">
+      <c r="V15" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W15" s="74" t="str">
+      <c r="W15" s="58" t="str">
         <f t="shared" si="2"/>
         <v>901199</v>
       </c>
-      <c r="X15" s="74" t="str">
+      <c r="X15" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1990</v>
       </c>
-      <c r="Y15" s="74">
+      <c r="Y15" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>34</v>
       </c>
-      <c r="Z15" s="74" t="str">
+      <c r="Z15" s="58" t="str">
         <f t="shared" si="5"/>
         <v>호남권</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="10">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="1">
         <v>40</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="5">
         <v>1</v>
       </c>
-      <c r="O16" s="69" t="s">
+      <c r="O16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="69" t="s">
+      <c r="P16" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="70" t="s">
+      <c r="Q16" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="71" t="s">
+      <c r="R16" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="S16" s="72" t="s">
+      <c r="S16" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="T16" s="73" t="s">
+      <c r="T16" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="U16" s="74" t="str">
+      <c r="U16" s="58" t="str">
         <f t="shared" si="0"/>
         <v>하나은행/694-9043-121446</v>
       </c>
-      <c r="V16" s="74" t="str">
+      <c r="V16" s="58" t="str">
         <f t="shared" si="1"/>
         <v>남</v>
       </c>
-      <c r="W16" s="74" t="str">
+      <c r="W16" s="58" t="str">
         <f t="shared" si="2"/>
         <v>941099</v>
       </c>
-      <c r="X16" s="74" t="str">
+      <c r="X16" s="58" t="str">
         <f t="shared" si="3"/>
         <v>1994</v>
       </c>
-      <c r="Y16" s="74">
+      <c r="Y16" s="58">
         <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
-      <c r="Z16" s="74" t="str">
+      <c r="Z16" s="58" t="str">
         <f t="shared" si="5"/>
         <v>수도권</v>
       </c>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="10">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="1">
         <v>40</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="5">
         <v>1</v>
       </c>
-      <c r="O17" s="69" t="s">
+      <c r="O17" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="69" t="s">
+      <c r="P17" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="Q17" s="70" t="s">
+      <c r="Q17" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="S17" s="72" t="s">
+      <c r="S17" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="T17" s="73" t="s">
+      <c r="T17" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="U17" s="74" t="str">
+      <c r="U17" s="58" t="str">
         <f t="shared" ref="U17:U21" si="6">S17&amp; "/" &amp;T17</f>
         <v>국민은행/939302-01-502195</v>
       </c>
-      <c r="V17" s="74" t="str">
+      <c r="V17" s="58" t="str">
         <f t="shared" ref="V17:V21" si="7">IF(OR(MID(J17, 8, 1) = "3", MOD(MID(J17, 8, 1), 2) = 1), "남", "여")</f>
         <v>남</v>
       </c>
-      <c r="W17" s="74" t="str">
+      <c r="W17" s="58" t="str">
         <f t="shared" ref="W17:W21" si="8">LEFT(J17, 6)</f>
         <v>050323</v>
       </c>
-      <c r="X17" s="74" t="str">
+      <c r="X17" s="58" t="str">
         <f t="shared" ref="X17:X21" si="9">IF(VALUE(MID(J17, 8, 1)) &lt;= 2, "19" &amp; LEFT(J17, 2), "20" &amp; LEFT(J17, 2))</f>
         <v>2005</v>
       </c>
-      <c r="Y17" s="74">
+      <c r="Y17" s="58">
         <f t="shared" ref="Y17:Y21" ca="1" si="10">YEAR(TODAY()) - VALUE(IF(VALUE(MID(J17, 8, 1)) &lt;= 2, "19" &amp; LEFT(J17, 2), "20" &amp; LEFT(J17, 2)))</f>
         <v>19</v>
       </c>
-      <c r="Z17" s="74" t="str">
+      <c r="Z17" s="58" t="str">
         <f t="shared" ref="Z17:Z21" si="11">IF(OR(ISNUMBER(SEARCH("서울", R17)), ISNUMBER(SEARCH("인천", R17)), ISNUMBER(SEARCH("경기", R17))), "수도권",
    IF(OR(ISNUMBER(SEARCH("부산", R17)), ISNUMBER(SEARCH("대구", R17)), ISNUMBER(SEARCH("울산", R17)), ISNUMBER(SEARCH("경북", R17)), ISNUMBER(SEARCH("경남", R17)), ISNUMBER(SEARCH("양산", R17)), ISNUMBER(SEARCH("김해", R17)), ISNUMBER(SEARCH("창원", R17)), ISNUMBER(SEARCH("경상북도", R17)), ISNUMBER(SEARCH("경상남도", R17))), "경상권",
    IF(OR(ISNUMBER(SEARCH("광주", R17)), ISNUMBER(SEARCH("전북", R17)), ISNUMBER(SEARCH("전남", R17)), ISNUMBER(SEARCH("전라북도", R17)), ISNUMBER(SEARCH("전라남도", R17))), "호남권",
@@ -5959,337 +5965,337 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="10">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="1">
         <v>40</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="K18" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="5">
         <v>1</v>
       </c>
-      <c r="O18" s="69" t="s">
+      <c r="O18" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P18" s="69" t="s">
+      <c r="P18" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="Q18" s="70" t="s">
+      <c r="Q18" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="R18" s="71" t="s">
+      <c r="R18" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="S18" s="72" t="s">
+      <c r="S18" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="T18" s="73" t="s">
+      <c r="T18" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="U18" s="74" t="str">
+      <c r="U18" s="58" t="str">
         <f t="shared" si="6"/>
         <v>NH농협/356-1382-5638-33</v>
       </c>
-      <c r="V18" s="74" t="str">
+      <c r="V18" s="58" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W18" s="74" t="str">
+      <c r="W18" s="58" t="str">
         <f t="shared" si="8"/>
         <v>050507</v>
       </c>
-      <c r="X18" s="74" t="str">
+      <c r="X18" s="58" t="str">
         <f t="shared" si="9"/>
         <v>2005</v>
       </c>
-      <c r="Y18" s="74">
+      <c r="Y18" s="58">
         <f t="shared" ca="1" si="10"/>
         <v>19</v>
       </c>
-      <c r="Z18" s="74" t="str">
+      <c r="Z18" s="58" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="10">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="1">
         <v>40</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="5">
         <v>3</v>
       </c>
-      <c r="O19" s="69" t="s">
+      <c r="O19" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="P19" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="Q19" s="70" t="s">
+      <c r="Q19" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="R19" s="71" t="s">
+      <c r="R19" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="S19" s="72" t="s">
+      <c r="S19" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="T19" s="73" t="s">
+      <c r="T19" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="U19" s="74" t="str">
+      <c r="U19" s="58" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-23-3090456</v>
       </c>
-      <c r="V19" s="74" t="str">
+      <c r="V19" s="58" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W19" s="74" t="str">
+      <c r="W19" s="58" t="str">
         <f t="shared" si="8"/>
         <v>020523</v>
       </c>
-      <c r="X19" s="74" t="str">
+      <c r="X19" s="58" t="str">
         <f t="shared" si="9"/>
         <v>2002</v>
       </c>
-      <c r="Y19" s="74">
+      <c r="Y19" s="58">
         <f t="shared" ca="1" si="10"/>
         <v>22</v>
       </c>
-      <c r="Z19" s="74" t="str">
+      <c r="Z19" s="58" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="10">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="1">
         <v>40</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="5">
         <v>3</v>
       </c>
-      <c r="O20" s="69" t="s">
+      <c r="O20" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="69" t="s">
+      <c r="P20" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="R20" s="71" t="s">
+      <c r="R20" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="S20" s="72" t="s">
+      <c r="S20" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="T20" s="73" t="s">
+      <c r="T20" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="U20" s="74" t="str">
+      <c r="U20" s="58" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-22-9308228</v>
       </c>
-      <c r="V20" s="74" t="str">
+      <c r="V20" s="58" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W20" s="74" t="str">
+      <c r="W20" s="58" t="str">
         <f t="shared" si="8"/>
         <v>040902</v>
       </c>
-      <c r="X20" s="74" t="str">
+      <c r="X20" s="58" t="str">
         <f t="shared" si="9"/>
         <v>2004</v>
       </c>
-      <c r="Y20" s="74">
+      <c r="Y20" s="58">
         <f t="shared" ca="1" si="10"/>
         <v>20</v>
       </c>
-      <c r="Z20" s="74" t="str">
+      <c r="Z20" s="58" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="10">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="4">
         <v>40</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="5">
         <v>3</v>
       </c>
-      <c r="O21" s="69" t="s">
+      <c r="O21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="69" t="s">
+      <c r="P21" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="Q21" s="70" t="s">
+      <c r="Q21" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="R21" s="71" t="s">
+      <c r="R21" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="S21" s="72" t="s">
+      <c r="S21" s="56" t="s">
         <v>253</v>
       </c>
-      <c r="T21" s="73" t="s">
+      <c r="T21" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="U21" s="74" t="str">
+      <c r="U21" s="58" t="str">
         <f t="shared" si="6"/>
         <v>카카오뱅크/3333-22-2528791</v>
       </c>
-      <c r="V21" s="74" t="str">
+      <c r="V21" s="58" t="str">
         <f t="shared" si="7"/>
         <v>여</v>
       </c>
-      <c r="W21" s="74" t="str">
+      <c r="W21" s="58" t="str">
         <f t="shared" si="8"/>
         <v>041012</v>
       </c>
-      <c r="X21" s="74" t="str">
+      <c r="X21" s="58" t="str">
         <f t="shared" si="9"/>
         <v>2004</v>
       </c>
-      <c r="Y21" s="74">
+      <c r="Y21" s="58">
         <f t="shared" ca="1" si="10"/>
         <v>20</v>
       </c>
-      <c r="Z21" s="74" t="str">
+      <c r="Z21" s="58" t="str">
         <f t="shared" si="11"/>
         <v>경상권</v>
       </c>
@@ -6310,465 +6316,465 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="79" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="79"/>
+    <col min="1" max="1" width="16" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="61" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="63" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickTop="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="66">
         <v>45455</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="109"/>
+      <c r="B4" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5" ht="17.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="91" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="90"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="86"/>
-      <c r="B6" s="87" t="s">
+      <c r="A6" s="109"/>
+      <c r="B6" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:5" ht="17.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="89" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="70">
         <v>222222222</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="92"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="90"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:5" ht="17.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="95" t="s">
+      <c r="A9" s="109"/>
+      <c r="B9" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="76" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="86"/>
-      <c r="B10" s="89" t="s">
+      <c r="A10" s="109"/>
+      <c r="B10" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="72">
         <v>0</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" ht="17.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:5" ht="17.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87" t="s">
+      <c r="A12" s="109"/>
+      <c r="B12" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="92"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5" ht="17.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="91" t="s">
+      <c r="A13" s="109"/>
+      <c r="B13" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" ht="17.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="93" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="109"/>
+      <c r="B15" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="86"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="86"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="109"/>
+      <c r="B17" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="86"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="109"/>
+      <c r="B18" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="86"/>
-      <c r="B19" s="89" t="s">
+      <c r="A19" s="109"/>
+      <c r="B19" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="86"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="109"/>
-      <c r="B25" s="87" t="s">
+      <c r="A25" s="104"/>
+      <c r="B25" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="90"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="109"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="104"/>
+      <c r="B26" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="90"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="109"/>
-      <c r="B27" s="87" t="s">
+      <c r="A27" s="104"/>
+      <c r="B27" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="90"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="109"/>
-      <c r="B28" s="87" t="s">
+      <c r="A28" s="104"/>
+      <c r="B28" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="90"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="109"/>
-      <c r="B29" s="87" t="s">
+      <c r="A29" s="104"/>
+      <c r="B29" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="90"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="70"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="109"/>
-      <c r="B30" s="111" t="s">
+      <c r="A30" s="104"/>
+      <c r="B30" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="90"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="70"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A31" s="113"/>
-      <c r="B31" s="104" t="s">
+      <c r="A31" s="105"/>
+      <c r="B31" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="105"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="78"/>
     </row>
     <row r="34" spans="1:5" ht="17.25">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="88" t="s">
+      <c r="C34" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="70" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="109"/>
-      <c r="B35" s="87" t="s">
+      <c r="A35" s="104"/>
+      <c r="B35" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="70" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.25">
-      <c r="A36" s="109"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="104"/>
+      <c r="B36" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E36" s="76" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="109"/>
-      <c r="B37" s="87" t="s">
+      <c r="A37" s="104"/>
+      <c r="B37" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="90" t="s">
+      <c r="E37" s="70" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="109"/>
-      <c r="B38" s="87" t="s">
+      <c r="A38" s="104"/>
+      <c r="B38" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="116" t="s">
+      <c r="C38" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="E38" s="87" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="109"/>
-      <c r="B39" s="87" t="s">
+      <c r="A39" s="104"/>
+      <c r="B39" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="87" t="s">
+      <c r="C39" s="86"/>
+      <c r="D39" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="117"/>
+      <c r="E39" s="87"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="109"/>
-      <c r="B40" s="87" t="s">
+      <c r="A40" s="104"/>
+      <c r="B40" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="88">
         <v>999999</v>
       </c>
-      <c r="D40" s="119" t="s">
+      <c r="D40" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="E40" s="120">
+      <c r="E40" s="90">
         <v>999999</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="109"/>
-      <c r="B41" s="87" t="s">
+      <c r="A41" s="104"/>
+      <c r="B41" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="87" t="s">
+      <c r="D41" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="122" t="s">
+      <c r="E41" s="92" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A42" s="113"/>
-      <c r="B42" s="123" t="s">
+      <c r="A42" s="105"/>
+      <c r="B42" s="93" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="124" t="s">
+      <c r="C42" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="89" t="s">
+      <c r="D42" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="E42" s="125" t="s">
+      <c r="E42" s="95" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6802,8 +6808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3755A036-A738-4735-B900-5D4EBF9F9F0A}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:E55"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6815,605 +6821,605 @@
     <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" thickBot="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:5" ht="28.5" thickBot="1">
+      <c r="A1" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="125" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="40" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="46" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="123"/>
+      <c r="B4" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="123"/>
+      <c r="B5" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="123"/>
+      <c r="B6" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <f>COUNT(참여자명단!A2:A21)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="123"/>
+      <c r="B8" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="123"/>
+      <c r="B10" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="19">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="25" t="str">
+      <c r="C11" s="18" t="str">
         <f>C9&amp; "~" &amp; C10</f>
         <v>2024.12.23~2024.12.30</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="51">
         <v>20</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="124"/>
+      <c r="B16" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="52">
         <f>C14-C15</f>
         <v>19</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="48" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>286</v>
+      <c r="E20" s="46" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="123"/>
+      <c r="B21" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="123"/>
+      <c r="B22" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="20" t="str">
+      <c r="C22" s="13" t="str">
         <f>C8</f>
         <v>광고 마케팅</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="123"/>
+      <c r="B23" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="123"/>
+      <c r="B24" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="123"/>
+      <c r="B25" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="16" t="str">
         <f>C23&amp;"~"&amp;C24</f>
         <v>2024.12.31~2025.01.27</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="17.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="18"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="26"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A31" s="67"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="31" t="str">
+      <c r="C34" s="24" t="str">
         <f>C21</f>
         <v>[노마드랩] 빅데이터 활용 개발</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A35" s="61"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="118"/>
+      <c r="B35" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A36" s="61"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="118"/>
+      <c r="B36" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="24">
         <v>2</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="61"/>
-      <c r="B37" s="13" t="s">
+      <c r="A37" s="118"/>
+      <c r="B37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="61"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="118"/>
+      <c r="B38" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="15"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="61"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="118"/>
+      <c r="B39" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="15"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="61"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="118"/>
+      <c r="B40" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="15"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="61"/>
-      <c r="B41" s="43" t="s">
+      <c r="A41" s="118"/>
+      <c r="B41" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="31" t="str">
+      <c r="C41" s="24" t="str">
         <f>C25</f>
         <v>2024.12.31~2025.01.27</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="61"/>
-      <c r="B42" s="13" t="s">
+      <c r="A42" s="118"/>
+      <c r="B42" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="61"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="118"/>
+      <c r="B43" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="15"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="61"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="118"/>
+      <c r="B44" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="31" t="str">
+      <c r="C44" s="24" t="str">
         <f>LEFT(C42, FIND("~", C42) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="15"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="61"/>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="118"/>
+      <c r="B45" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="31" t="str">
+      <c r="C45" s="24" t="str">
         <f>LEFT(C42, FIND("~", C42) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="15"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="61"/>
-      <c r="B46" s="44" t="s">
+      <c r="A46" s="118"/>
+      <c r="B46" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="15"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="61"/>
-      <c r="B47" s="44" t="s">
+      <c r="A47" s="118"/>
+      <c r="B47" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="15"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="61"/>
-      <c r="B48" s="44" t="s">
+      <c r="A48" s="118"/>
+      <c r="B48" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="15"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="61"/>
-      <c r="B49" s="44" t="s">
+      <c r="A49" s="118"/>
+      <c r="B49" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="15"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="61"/>
-      <c r="B50" s="44" t="s">
+      <c r="A50" s="118"/>
+      <c r="B50" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="15"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="61"/>
-      <c r="B51" s="44" t="s">
+      <c r="A51" s="118"/>
+      <c r="B51" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="15"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="61"/>
-      <c r="B52" s="44" t="s">
+      <c r="A52" s="118"/>
+      <c r="B52" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="15"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="61"/>
-      <c r="B53" s="44" t="s">
+      <c r="A53" s="118"/>
+      <c r="B53" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="61"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="15"/>
+      <c r="A54" s="118"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A55" s="62"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7461,367 +7467,367 @@
     <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" thickBot="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:5" ht="28.5" thickBot="1">
+      <c r="A1" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="125" t="s">
         <v>279</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="40" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="46" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="123"/>
+      <c r="B4" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="123"/>
+      <c r="B5" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="123"/>
+      <c r="B6" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <f>COUNT(참여자명단!A2:A21)</f>
         <v>20</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="39" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="123"/>
+      <c r="B8" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="123"/>
+      <c r="B10" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="19">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C11" s="25" t="str">
+      <c r="C11" s="18" t="str">
         <f>C9&amp; "~" &amp; C10</f>
         <v>2024.12.23~2024.12.30</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="18"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="123"/>
+      <c r="B12" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="48" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="51">
         <v>20</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="124"/>
+      <c r="B16" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="59">
+      <c r="C16" s="52">
         <f>C14-C15</f>
         <v>19</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="48" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1">
       <c r="A20" s="126"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="46" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1">
       <c r="A21" s="126"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="14" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" customHeight="1">
       <c r="A22" s="126"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="20" t="str">
+      <c r="C22" s="13" t="str">
         <f>C8</f>
         <v>광고 마케팅</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1">
       <c r="A23" s="126"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="126"/>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1">
       <c r="A25" s="126"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="16" t="str">
         <f>C23&amp;"~"&amp;C24</f>
         <v>2024.12.31~2025.01.27</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="18"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="17.25">
       <c r="A26" s="126"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" customHeight="1">
       <c r="A27" s="126"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" customHeight="1">
       <c r="A28" s="126"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="16.5" customHeight="1">
       <c r="A29" s="126"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" customHeight="1">
       <c r="A30" s="126"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A31" s="127"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="35" spans="1:5" ht="19.5" customHeight="1"/>
@@ -7849,7 +7855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7F8445-7454-42F1-BECA-8CA3092D290F}">
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -7860,242 +7866,242 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="17.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="117" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C3" s="24" t="str">
         <f>'일경험 정보ㅁ'!C21</f>
         <v>[노마드랩] 빅데이터 활용 개발</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="118"/>
+      <c r="B4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="24">
         <v>2</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="61"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="61"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="15"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="61"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="61"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="118"/>
+      <c r="B9" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="61"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="118"/>
+      <c r="B10" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="31" t="str">
+      <c r="C10" s="24" t="str">
         <f>'일경험 정보ㅁ'!C25</f>
         <v>2024.12.31~2025.01.27</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="61"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="118"/>
+      <c r="B11" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="61"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="118"/>
+      <c r="B12" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="61"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="31" t="str">
+      <c r="C13" s="24" t="str">
         <f>LEFT(C11, FIND("~", C11) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="61"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="118"/>
+      <c r="B14" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="31" t="str">
+      <c r="C14" s="24" t="str">
         <f>LEFT(C11, FIND("~", C11) - 2)</f>
         <v>2024.11.18</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="61"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="118"/>
+      <c r="B15" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="61"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="118"/>
+      <c r="B16" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="61"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="118"/>
+      <c r="B17" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="61"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="118"/>
+      <c r="B18" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="61"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="15"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="61"/>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="118"/>
+      <c r="B20" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="61"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="118"/>
+      <c r="B21" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="61"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="118"/>
+      <c r="B22" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="15"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="61"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
